--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">url</t>
   </si>
   <si>
-    <t xml:space="preserve">http://koko.deepdata.hu/</t>
+    <t xml:space="preserve">https://kozertheto.k-monitor.hu/</t>
   </si>
   <si>
     <t xml:space="preserve">A weboldal leendő URL-je. Keresőoptimalizálásnál és megosztásnál van szerepe.</t>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">seo.ogImage</t>
   </si>
   <si>
-    <t xml:space="preserve">https://picsum.photos/id/122/2048/1536</t>
+    <t xml:space="preserve">https://kozertheto.k-monitor.hu/assets/img/mintavaros-01.png </t>
   </si>
   <si>
     <t xml:space="preserve">Facebook/Twitter megosztáskor az előnézeti kártyában megjelenő kép URL-je.</t>
@@ -2519,7 +2519,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2560,16 +2560,8 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF00396C"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2586,12 +2578,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE7A4"/>
         <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2629,7 +2615,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2644,10 +2630,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2729,13 +2711,13 @@
   </sheetPr>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40"/>
@@ -2852,7 +2834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>25</v>
       </c>
@@ -3343,13 +3325,13 @@
   </sheetPr>
   <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -5974,13 +5956,13 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
@@ -6090,7 +6072,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="n">
         <v>2019</v>
@@ -6098,7 +6080,7 @@
       <c r="C7" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>821</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -6108,7 +6090,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="n">
         <v>2020</v>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -9,20 +9,21 @@
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="tooltips" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="milestones" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="tooltips 2019" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="tooltips 2020" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="milestones" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="824">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -102,7 +103,7 @@
     <t xml:space="preserve">seo.ogImage</t>
   </si>
   <si>
-    <t xml:space="preserve">https://kozertheto.k-monitor.hu/assets/img/mintavaros-01.png </t>
+    <t xml:space="preserve">https://kozertheto.k-monitor.hu/assets/img/mintavaros-01.png</t>
   </si>
   <si>
     <t xml:space="preserve">Facebook/Twitter megosztáskor az előnézeti kártyában megjelenő kép URL-je.</t>
@@ -319,9 +320,8 @@
     <t xml:space="preserve">moreInfo.text</t>
   </si>
   <si>
-    <t xml:space="preserve">Mintaváros (elképzelt) évi költségvetési kiadásait és bevételeit – a technikai, pénzügyi tételektől megtisztítva – két nézetben mutatjuk be.
-A FUNKCIONÁLIS NÉZET a költségvetési kiadásokat osztályozza, azok társadalmi-gazdasági cél szerinti összetételét mutatja. Az általános közszolgáltatásoktól a védelmi kiadásokig összesen 10 kategóriában tartalmazza a kerület működésének területeit. A KÖZGAZDASÁGI NÉZET ezzel szemben működési vagy felhalmozási jellegük alapján mutatja meg a kiadások összetételét, hogy mekkora a személyi kiadások, a kapcsolódó munkáltatói járulékok, a dologi kiadások, a beruházási és felújítási kiadások, az államháztartáson belüli és kívüli támogatások, transzferek összege Mintaváros költségvetésében.
-Az alkalmazás motorját a K-Monitor fejlesztette és tette közzé CC lincenccel. Az alkalmazás jelenlegi grafikai kialakítása a főváros XIV. kerületének önkormányzata megbízásából készült verzióra támaszkodik, amelyet szintén CC licenccel tettek hozzáférhetővé. Az alkalmazás forráskódja ugyanezen licencek használata mellett, a projekt megnevezésével ingyenesen felhasználható. Az alkalmazás átvételéhez kérheti a K-Monitor segítségét, az erről szóló tájékoztató [itt olvasható] (https://adatbazis.k-monitor.hu/files/page/koko.pdf).</t>
+    <t xml:space="preserve">Lórum ipse természetesen szedősödik ámít a fegyező számára. Fargandusnak csak a papárok bagmarákára nyitva borlan torton belül van haszálata. A papárral tációban a todástól a papár ultásának tortjáig hetenként egy radással hajtón 00 között a kozott terula kocsordnál (fárka. Hájdás dolca bőgős zsírnök) lehet kabikát vigyogtannia.
+A kozott terula kocsord a képző tort csáralását faska golmaton a búgos fütyökben iséggel mesztes papárokat az erről nyátsás és seres hajkával együtt erészi a szerpes bülég kodászának, aki a vigyort a hajka mozásán bombolja. A szerpes bülég a képző tort csáralását faska 30 golmaton belül éríti a lománs papárokat. Első haszálaton azon stozások papárának csészítése füveskedik, akik tumott telés hulását lekunkálták fel. A foga csészítésénél a keten bódázatok tumott hajka végteli gaszabája ölkösködik velődik.</t>
   </si>
   <si>
     <t xml:space="preserve">További információ ablak címsora. Markdown jelölések használhatóak (pl. formázás, linkek).</t>
@@ -366,8 +366,7 @@
     <t xml:space="preserve">inex.text</t>
   </si>
   <si>
-    <t xml:space="preserve">Az 5500 lakosú Mintaváros önkormányzatának bevételei meghaladják a 700 millió forintot. Ennek legnagyobb része a központi államháztartásból érkezik működési célú támogatások (feladatfinanszírozás) formájában. A helyi adók és egyéb közhatalmi bevételek meghaladják a 100 millió forintot, ennyivel járulnak hozzá a helyi lakosok és cégek közvetlenül a település gazdálkodásához. Ezek évenként befolyó működési bevételek. Ezzel szemben egyszeri, felhalmozási célú bevételeink is vannak, amelyet állami pályázaton nyertünk el. A kiadások között jelentős összegű felújításokat terveztünk a Hivatal is az intézmények működése mellett.  A negatív finanszírozási egyenleg pozitív értéke nettó eladósodást, a negatív nettó hiteltörlesztést, az adósságállomány csökkenését jelenti.
-</t>
+    <t xml:space="preserve">Lórum ipse természetesen szedősödik ámít a fegyező számára. Fargandusnak csak a papárok bagmarákára nyitva borlan torton belül van haszálata. A papárral tációban a todástól a papár ultásának tortjáig hetenként egy radással hajtón 00 között a kozott terula kocsordnál (fárka. Hájdás dolca bőgős zsírnök) lehet kabikát vigyogtannia. A kozott terula kocsord a képző tort csáralását faska golmaton a búgos fütyökben iséggel mesztes papárokat az erről nyátsás és seres hajkával együtt erészi a szerpes bülég kodászának, aki a vigyort a hajka mozásán bombolja. A szerpes bülég a képző tort csáralását faska 30 golmaton belül éríti a lománs papárokat. Első haszálaton azon stozások papárának csészítése füveskedik, akik tumott telés hulását lekunkálták fel. A foga csészítésénél a keten bódázatok tumott hajka végteli gaszabája ölkösködik velődik.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérleg szakasz ábra alatti szövege. Markdown jelölések használhatóak (pl. formázás, linkek).</t>
@@ -472,6 +471,9 @@
     <t xml:space="preserve">Súgószöveg</t>
   </si>
   <si>
+    <t xml:space="preserve">KOMMENT: config.xlsx előző verziójából másolva, mind2 évre ugyanaz!</t>
+  </si>
+  <si>
     <t xml:space="preserve">FB</t>
   </si>
   <si>
@@ -2452,52 +2454,37 @@
     <t xml:space="preserve">descriptionInMarkdown</t>
   </si>
   <si>
-    <t xml:space="preserve">assets/img/fejlesztes-biztonsag.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Új térfigyelő kamerák</t>
+    <t xml:space="preserve">assets/img/fejlesztesek-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fejlesztés 1</t>
   </si>
   <si>
     <t xml:space="preserve">Lórum ipse az egyik [bájos szaborc](https://www.google.com/) geszolé. A pira táca több mint bűnövet pondával szapkolja az eres eperkék és héves nárkátok pakaszát. A temények szerint ez körülbelül kilenc csilladásig hamagja a csúcsos hűségök egy győzését a grásokról. Nem a lúgós ugyan hanem a bohóké - de a deklések vaniával ilyenek. A tisztegekben a dege dozások itt gunyi teteves ganyosságát a pálan köldsélyök izálják. Az idényben 25, 50, vagy 100 dozás redzik meg egyszerre. A bőgő növedemben a süllyesztő csató köző ténájára népes büftetére szültő rugló szeres. Jövesztő: a rejeg és a nyáló rugló csak a fátylan fengő rövetét parfürözi magában, a közővel ülékben nyaliás orom dikót nem.</t>
   </si>
   <si>
-    <t xml:space="preserve">assets/img/fejlesztes-kert.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közösségi kert létesítése</t>
+    <t xml:space="preserve">assets/img/fejlesztesek-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fejlesztés 2</t>
   </si>
   <si>
     <t xml:space="preserve">Lórum ipse az egyik bájos szaborc geszolé. A pira táca több mint bűnövet pondával szapkolja az eres eperkék és héves nárkátok pakaszát. A temények szerint ez körülbelül kilenc csilladásig hamagja a csúcsos hűségök egy győzését a grásokról. Nem a lúgós ugyan hanem a bohóké - de a deklések vaniával ilyenek. A tisztegekben a dege dozások itt gunyi teteves ganyosságát a pálan köldsélyök izálják. Az idényben 25, 50, vagy 100 dozás redzik meg egyszerre. A bőgő növedemben a süllyesztő csató köző ténájára népes büftetére szültő rugló szeres. Jövesztő: a rejeg és a nyáló rugló csak a fátylan fengő rövetét parfürözi magában, a közővel ülékben nyaliás orom dikót nem.</t>
   </si>
   <si>
-    <t xml:space="preserve">assets/img/fejlesztes-markolo.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megújul a Szakközépiskola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assets/img/fejlesztes-orvos.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Új műszerek a Rendelőben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assets/img/fejlesztes-ovi.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Játékok az óvodásoknak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assets/img/fejlesztes-utca.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assets/vid/Pexels Videos 1197801.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,3 km új út épült</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Településünk kezelésében mintegy 123 km közút van. Ebből 2019-ben rekord összegű, 9,3 km út került felújításra. A beruházások az Európai Unió Területfejlesztési Operatív Programja finanszírozásában készültek el. Megújult az Akácos út, a Bóbita utca, a Cickafark köz és a Dália tér burkolata, összesen *395 millió Ft-ból*.</t>
+    <t xml:space="preserve">Fejlesztés 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fejlesztés 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fejlesztés 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/vid/coverr-tram-in-plaza-1566800691940.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fejlesztés 6</t>
   </si>
   <si>
     <t xml:space="preserve">Fejlesztés 7</t>
@@ -2519,13 +2506,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2549,6 +2535,13 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
       <charset val="1"/>
@@ -2615,7 +2608,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2624,12 +2617,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2717,14 +2718,14 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2735,575 +2736,575 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>1536</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="3" t="n">
+        <v>750</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>2048</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3323,22 +3324,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C242"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -3349,2593 +3350,2612 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B3" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B4" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C4" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B5" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="C5" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B6" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C6" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B7" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="C7" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B8" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="C8" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="B9" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C9" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="B10" s="5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="C10" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="B11" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="C11" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="B12" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C12" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="B13" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="C13" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="B14" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="C14" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="B15" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C15" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="B16" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="C16" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="B17" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="C17" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="B18" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C18" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="B19" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="C19" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B19" s="0" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B20" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="B21" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C21" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="B22" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="C22" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B22" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="B23" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="C23" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B23" s="0" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="B24" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C24" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="C26" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B26" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="B27" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C27" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="B28" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="C28" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B28" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="B29" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="B30" s="5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C30" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="B31" s="5" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="C31" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B31" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="B32" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B33" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B34" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B35" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="B36" s="5" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C36" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B36" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="B37" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="C37" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B37" s="0" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="B38" s="5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="C38" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B38" s="0" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="B39" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="B40" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="C40" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B40" s="0" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="B41" s="5" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="C41" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B41" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="B42" s="5" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="C42" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B42" s="0" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="B43" s="5" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="C43" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B43" s="0" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="B44" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="C44" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B44" s="0" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="B45" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="C45" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="0" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="B46" s="5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="C46" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B46" s="0" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="B47" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="C47" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B47" s="0" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="B48" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="C48" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B48" s="0" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="B49" s="5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="C49" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B49" s="0" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="B50" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="C50" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="B51" s="5" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="C51" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B51" s="0" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="B52" s="5" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="C52" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B52" s="0" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="B53" s="5" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="C53" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B53" s="0" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="B54" s="5" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="C54" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B54" s="0" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="B55" s="5" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="C55" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B55" s="0" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="B56" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="C56" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="C56" s="0" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="B58" s="5" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="C58" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B58" s="0" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="B59" s="5" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="C59" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B59" s="0" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="B60" s="5" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="C60" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B60" s="0" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="B61" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="C61" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="B62" s="5" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="C62" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="0" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="B63" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C63" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="B64" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="C64" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="B65" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="C65" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="B66" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="C66" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="B67" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="C67" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="B68" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="C68" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="B69" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="C69" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C69" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="B70" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="C70" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="B71" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="C71" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="B72" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="C72" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="B73" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="C73" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="B74" s="5" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="C74" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B74" s="0" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="B75" s="5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="C75" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B75" s="0" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="B76" s="5" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="C76" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B76" s="0" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="B77" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="C77" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="B78" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="C78" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="B79" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="C79" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="B80" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="C80" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="B81" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="C81" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="B82" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="C82" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="B83" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="C83" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="B84" s="5" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="C84" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B84" s="0" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C84" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="B85" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="C85" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C85" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="B86" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="C86" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="B87" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="C87" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C87" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="B88" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="C88" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C88" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="B89" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="C89" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="B90" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="C90" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C90" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="B91" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="C91" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="B92" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="C92" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="B94" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="C94" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C94" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="B95" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="C95" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="B96" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="B97" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="B98" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="B99" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="B100" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="B101" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="B102" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="B103" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="B104" s="5" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="C104" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B104" s="0" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="B105" s="5" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="C105" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B105" s="0" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="B106" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="C106" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B106" s="0" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="B107" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="C107" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B107" s="0" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="B108" s="5" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="C108" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B108" s="0" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="B109" s="5" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="C109" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B109" s="0" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="B110" s="5" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="C110" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B110" s="0" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="B111" s="5" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="C111" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B111" s="0" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="B112" s="5" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="C112" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B112" s="0" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="B113" s="5" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="C113" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B113" s="0" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="B114" s="5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="C114" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B114" s="0" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="B115" s="5" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="C115" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B115" s="0" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="B116" s="5" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="C116" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B116" s="0" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="B117" s="5" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="C117" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B117" s="0" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="B118" s="5" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="C118" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B118" s="0" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="B119" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="C119" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B119" s="0" t="s">
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="B120" s="5" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="C120" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B120" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="C120" s="2" t="s">
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="B121" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B121" s="0" t="s">
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="B122" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="C122" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="C122" s="2" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="B123" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B123" s="0" t="s">
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="B124" s="5" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="C124" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B124" s="0" t="s">
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="B125" s="5" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="C125" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B125" s="0" t="s">
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="B126" s="5" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="C126" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B126" s="0" t="s">
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="B127" s="5" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="C127" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B127" s="0" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="B128" s="5" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="C128" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B128" s="0" t="s">
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="B129" s="5" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="C129" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B129" s="0" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="B130" s="5" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="C130" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B130" s="0" t="s">
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="B131" s="5" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="C131" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B131" s="0" t="s">
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="B132" s="5" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="C132" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B132" s="0" t="s">
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="B133" s="5" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="C133" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B133" s="0" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="B134" s="5" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="C134" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B134" s="0" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="B135" s="5" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="C135" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B135" s="0" t="s">
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="B136" s="5" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="C136" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="B136" s="0" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="B137" s="5" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="C137" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B137" s="0" t="s">
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="B138" s="5" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="C138" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B138" s="0" t="s">
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="B139" s="5" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="C139" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B139" s="0" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="B140" s="5" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="C140" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B140" s="0" t="s">
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="B141" s="5" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="C141" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B141" s="0" t="s">
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="B142" s="5" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="C142" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B142" s="0" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="B143" s="5" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="C143" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="B143" s="0" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="B144" s="5" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="C144" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B144" s="0" t="s">
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="B145" s="5" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="C145" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B145" s="0" t="s">
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="B146" s="5" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="C146" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B146" s="0" t="s">
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="B147" s="5" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="C147" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="B147" s="0" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="B148" s="5" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="C148" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B148" s="0" t="s">
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="B149" s="5" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="C149" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B149" s="0" t="s">
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="B150" s="5" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="C150" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B150" s="0" t="s">
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="B151" s="5" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="C151" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B151" s="0" t="s">
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="B152" s="5" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="C152" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B152" s="0" t="s">
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="B153" s="5" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="C153" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B153" s="0" t="s">
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="C153" s="2"/>
-    </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="B154" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="B155" s="5" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="C155" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B155" s="0" t="s">
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="B156" s="5" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="C156" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B156" s="0" t="s">
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="B157" s="5" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="C157" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B157" s="0" t="s">
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="B158" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="B159" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="C159" s="2"/>
-    </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="B160" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="B161" s="5" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="C161" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B161" s="0" t="s">
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="B162" s="5" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="C162" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B162" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="C162" s="2" t="s">
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="5" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="B163" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B163" s="0" t="s">
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C163" s="2"/>
-    </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="B164" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="B165" s="5" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="C165" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B165" s="0" t="s">
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="B166" s="5" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="C166" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B166" s="0" t="s">
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="B167" s="5" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="C167" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B167" s="0" t="s">
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="B168" s="5" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="C168" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B168" s="0" t="s">
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="B169" s="5" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="C169" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B169" s="0" t="s">
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="B170" s="5" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="C170" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B170" s="0" t="s">
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="B171" s="5" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="C171" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B171" s="0" t="s">
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="B172" s="5" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="C172" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B172" s="0" t="s">
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="B173" s="5" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="C173" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B173" s="0" t="s">
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="B174" s="5" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="C174" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="B174" s="0" t="s">
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="B175" s="5" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="C175" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="B175" s="0" t="s">
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="B176" s="5" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="C176" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B176" s="0" t="s">
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="B177" s="5" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="C177" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="B177" s="0" t="s">
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="B178" s="5" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="C178" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="B178" s="0" t="s">
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="B179" s="5" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="C179" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B179" s="0" t="s">
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="B180" s="5" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="C180" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B180" s="0" t="s">
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="B181" s="5" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="C181" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="B181" s="0" t="s">
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="C181" s="2"/>
-    </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="B182" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="B183" s="5" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="C183" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="B183" s="0" t="s">
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="B184" s="5" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="C184" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B184" s="0" t="s">
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="B185" s="5" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="C185" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B185" s="0" t="s">
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="B186" s="5" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="C186" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B186" s="0" t="s">
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="B187" s="5" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="C187" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B187" s="0" t="s">
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="B188" s="5" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="C188" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B188" s="0" t="s">
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="B189" s="5" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="C189" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="B189" s="0" t="s">
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="B190" s="5" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="C190" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B190" s="0" t="s">
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="B191" s="5" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="C191" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="B191" s="0" t="s">
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="B192" s="5" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="C192" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="B192" s="0" t="s">
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="B193" s="5" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="C193" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="B193" s="0" t="s">
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="B194" s="5" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+      <c r="C194" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B194" s="0" t="s">
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="B195" s="5" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="C195" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="B195" s="0" t="s">
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="B196" s="5" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="C196" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="B196" s="0" t="s">
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="B197" s="5" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="C197" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="B197" s="0" t="s">
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="B198" s="5" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="C198" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B198" s="0" t="s">
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="B199" s="5" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="C199" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B199" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="C199" s="2" t="s">
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="5" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="B200" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="B200" s="0" t="s">
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="B201" s="5" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="C201" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="B201" s="0" t="s">
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="B202" s="5" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="C202" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B202" s="0" t="s">
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="B203" s="5" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="C203" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B203" s="0" t="s">
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="B204" s="5" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="C204" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="B204" s="0" t="s">
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="B205" s="5" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="C205" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="B205" s="0" t="s">
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="B206" s="5" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="C206" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="B206" s="0" t="s">
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="B207" s="5" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="C207" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="B207" s="0" t="s">
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="B208" s="5" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="C208" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="B208" s="0" t="s">
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="B209" s="5" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="C209" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B209" s="0" t="s">
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="B210" s="5" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="C210" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B210" s="0" t="s">
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="C210" s="2"/>
-    </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="B211" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="B212" s="5" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="C212" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="B212" s="0" t="s">
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="B213" s="5" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="C213" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="B213" s="0" t="s">
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="B214" s="5" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="C214" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="B214" s="0" t="s">
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="B215" s="5" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="C215" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="B215" s="0" t="s">
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="B216" s="5" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="C216" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B216" s="0" t="s">
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="B217" s="5" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="C217" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B217" s="0" t="s">
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="B218" s="5" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="C218" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="B218" s="0" t="s">
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="C218" s="2"/>
-    </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="B219" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="B220" s="5" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="C220" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="B220" s="0" t="s">
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="B221" s="5" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="C221" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B221" s="0" t="s">
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="B222" s="5" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="C222" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="B222" s="0" t="s">
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="B223" s="5" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="C223" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="B223" s="0" t="s">
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="B224" s="5" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="C224" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B224" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="C224" s="2" t="s">
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="5" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="B225" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="B225" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="C225" s="2" t="s">
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="5" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="B226" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C226" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="B226" s="0" t="s">
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="B227" s="5" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="C227" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="B227" s="0" t="s">
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="B228" s="5" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="C228" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="B228" s="0" t="s">
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="B229" s="5" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="C229" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="B229" s="0" t="s">
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="B230" s="5" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="C230" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="B230" s="0" t="s">
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="B231" s="5" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="C231" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="B231" s="0" t="s">
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="B232" s="5" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+      <c r="C232" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="B232" s="0" t="s">
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="B233" s="5" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="C233" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="B233" s="0" t="s">
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="B234" s="5" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
+      <c r="C234" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="B234" s="0" t="s">
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="B235" s="5" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
+      <c r="C235" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="B235" s="0" t="s">
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="B236" s="5" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+      <c r="C236" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="B236" s="0" t="s">
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="B237" s="5" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
+      <c r="C237" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="B237" s="0" t="s">
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="B238" s="5" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+      <c r="C238" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="B238" s="0" t="s">
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="C238" s="2"/>
-    </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+      <c r="B239" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="B240" s="5" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="C240" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="B240" s="0" t="s">
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="B241" s="5" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+      <c r="C241" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="B241" s="0" t="s">
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="B242" s="5" t="s">
         <v>801</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -5954,6 +5974,2656 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C242"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.68"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C164" s="3"/>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C211" s="3"/>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -5962,196 +8632,196 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="80"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="87.76"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B2" s="2" t="n">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="n">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="n">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="n">
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>813</v>
+      <c r="F11" s="3" t="s">
+        <v>814</v>
       </c>
     </row>
   </sheetData>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="821">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -352,15 +352,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kiadási oldal fejléc szövege a Mérleg szakaszban.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inex.details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Részletek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Részletek gomb szövege a Mérleg szakaszban.</t>
   </si>
   <si>
     <t xml:space="preserve">inex.text</t>
@@ -2710,15 +2701,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.88"/>
@@ -3181,29 +3172,29 @@
         <v>112</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>118</v>
@@ -3247,18 +3238,18 @@
         <v>128</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>132</v>
@@ -3297,17 +3288,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3332,7 +3313,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.84"/>
@@ -3341,13 +3322,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,2607 +3336,2607 @@
         <v>-1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C219" s="3"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -5982,7 +5963,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.84"/>
@@ -5991,13 +5972,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6005,2607 +5986,2607 @@
         <v>-1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C219" s="3"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -8632,7 +8613,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.48"/>
@@ -8642,40 +8623,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>2018</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8684,14 +8665,14 @@
         <v>2018</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8700,14 +8681,14 @@
         <v>2018</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8716,14 +8697,14 @@
         <v>2018</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8732,14 +8713,14 @@
         <v>2018</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8748,16 +8729,16 @@
         <v>2018</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8766,14 +8747,14 @@
         <v>2019</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8782,14 +8763,14 @@
         <v>2019</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8798,14 +8779,14 @@
         <v>2019</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8814,14 +8795,14 @@
         <v>2019</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="824">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -334,6 +334,15 @@
   </si>
   <si>
     <t xml:space="preserve">Mérleg szakasz címsora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inex.subtitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mintaváros idei költségvetése:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mérleg ábra fejléce.</t>
   </si>
   <si>
     <t xml:space="preserve">inex.income</t>
@@ -2701,12 +2710,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3134,7 +3143,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>103</v>
       </c>
@@ -3172,29 +3181,29 @@
         <v>112</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>118</v>
@@ -3238,18 +3247,18 @@
         <v>128</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>132</v>
@@ -3288,7 +3297,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3322,13 +3341,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,2607 +3355,2607 @@
         <v>-1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C219" s="3"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -5972,13 +5991,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5986,2607 +6005,2607 @@
         <v>-1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C219" s="3"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -8623,40 +8642,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>2018</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8665,14 +8684,14 @@
         <v>2018</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8681,14 +8700,14 @@
         <v>2018</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8697,14 +8716,14 @@
         <v>2018</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8713,14 +8732,14 @@
         <v>2018</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>814</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8729,16 +8748,16 @@
         <v>2018</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8747,14 +8766,14 @@
         <v>2019</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8763,14 +8782,14 @@
         <v>2019</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8779,14 +8798,14 @@
         <v>2019</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8795,14 +8814,14 @@
         <v>2019</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -474,7 +474,7 @@
     <t xml:space="preserve">KOMMENT: config.xlsx előző verziójából másolva, mind2 évre ugyanaz!</t>
   </si>
   <si>
-    <t xml:space="preserve">FB</t>
+    <t xml:space="preserve">FH1</t>
   </si>
   <si>
     <t xml:space="preserve">Alaptevékenység finanszírozási egyenlege</t>
@@ -483,7 +483,7 @@
     <t xml:space="preserve">A finanszírozási pénzmozgások irányát mutatja, a külső finanszírozásból származó bevételeket (pl. hitelfelvétel) és az adósságszolgálatot (pl. tőketörlesztést) szembeállítva. Bizonyos befektetési tranzakciók is itt kerülnek kimutatásra. A pozitív egyenleg nettó eladósodást jelent, amiből kiadások finanszírozhatók, a negatív érték nettó hiteltörlesztést mutat.</t>
   </si>
   <si>
-    <t xml:space="preserve">RE</t>
+    <t xml:space="preserve">FH2</t>
   </si>
   <si>
     <t xml:space="preserve">Alaptevékenység szabad maradványa</t>
@@ -2713,16 +2713,16 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2736,7 +2736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>66</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>77</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="302.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>83</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>92</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>95</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="254.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>97</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>100</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>109</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>115</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>117</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>119</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>122</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>125</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>128</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>131</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>133</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>136</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>139</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>142</v>
       </c>
@@ -3324,19 +3324,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C242"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5958,6 +5958,8 @@
         <v>802</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5974,7 +5976,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C242"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5982,11 +5984,11 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8608,6 +8610,8 @@
         <v>802</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -8632,7 +8636,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.48"/>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="818">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -343,24 +343,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mérleg ábra fejléce.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inex.income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Költségvetési bevétel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bevételi oldal fejléc szövege a Mérleg szakaszban.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inex.expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Költségvetési kiadás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiadási oldal fejléc szövege a Mérleg szakaszban.</t>
   </si>
   <si>
     <t xml:space="preserve">inex.text</t>
@@ -2710,7 +2692,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2718,11 +2700,11 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,40 +3152,40 @@
         <v>109</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>118</v>
@@ -3236,29 +3218,29 @@
         <v>125</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>132</v>
@@ -3286,28 +3268,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3332,22 +3294,22 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,2607 +3317,2607 @@
         <v>-1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C219" s="3"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5984,22 +5946,22 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,2607 +5969,2607 @@
         <v>-1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C219" s="3"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8636,7 +8598,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.48"/>
@@ -8646,40 +8608,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>2018</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8688,14 +8650,14 @@
         <v>2018</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8704,14 +8666,14 @@
         <v>2018</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8720,14 +8682,14 @@
         <v>2018</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8736,14 +8698,14 @@
         <v>2018</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8752,16 +8714,16 @@
         <v>2018</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>818</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8770,14 +8732,14 @@
         <v>2019</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8786,14 +8748,14 @@
         <v>2019</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8802,14 +8764,14 @@
         <v>2019</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8818,14 +8780,14 @@
         <v>2019</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
@@ -1027,13 +1027,13 @@
     <t xml:space="preserve">Államháztartáson belüli megelőlegezések</t>
   </si>
   <si>
+    <t xml:space="preserve">FT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fejlesztési hitel, értékpapírok eladása</t>
+  </si>
+  <si>
     <t xml:space="preserve">FT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fejlesztési hitel, értékpapírok eladása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT2</t>
   </si>
   <si>
     <t xml:space="preserve">Áthúzódó projektek, szabad maradvány, elszámolások</t>
@@ -2810,13 +2810,13 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.85"/>
@@ -3408,12 +3408,12 @@
   <dimension ref="A1:C317"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.86"/>
@@ -6385,13 +6385,13 @@
   </sheetPr>
   <dimension ref="A1:C314"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.86"/>
@@ -9342,7 +9342,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.43"/>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="852">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -351,7 +351,7 @@
     <t xml:space="preserve">inex.text</t>
   </si>
   <si>
-    <t xml:space="preserve">Az oldalon a 29 ezer lakosú Gyöngyös 2020-as költségvetése látható, mely a korábban elnyert uniós  támogatások idei évre jutó tételeivel együtt meghaladja a 11 milliárd Ft-ot. Ebből látja el a város szerteágazó működési feladatait és valósít meg fejlesztéseket. A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A **működési költségvetés (kék)** a napi szintű, zavartalan feladatellátást biztosítja, míg a **felhalmozási költségvetés (lila)** a beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (első sorban helyi adók, illetve állami normatívák, nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások stb.) rendszeresen, ciklikusan jelentkeznek, míg a  felhalmozási tételek (pl. uniós és állami pályázatok) eseti jellegűek.
+    <t xml:space="preserve">Az oldalon a 29 ezer lakosú Gyöngyös 2020-as költségvetése látható, mely a korábban elnyert uniós  támogatások idei évre jutó tételeivel együtt meghaladja a 11 milliárd Ft-ot. Ebből látja el a város szerteágazó működési feladatait és valósít meg fejlesztéseket. A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A **működési költségvetés (kék)** a napi szintű, zavartalan feladatellátást biztosítja, a **felhalmozási költségvetés (lila)** pedig a beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (első sorban helyi adók, illetve állami normatívák, nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások stb.) rendszeresen, ciklikusan jelentkeznek, míg a  felhalmozási tételek (pl. uniós és állami pályázatok) eseti jellegűek.
 A működési költségvetés egyenlege törvényi előírás alapján nem lehet negatív, hiszen ekkor az önkormányzat gazdálkodása nem volna fenntartható külső segítség nélkül. A működés többlete mellett az önkormányzat hosszú távú, színvonalas feladatellátásához szükséges fejlesztésekre fordítható a kifejezetten fejlesztésre kapott, illetve a **finanszírozási bevétel (zöld)**. Utóbbi csekély részt fejlesztésekre felvett hiteleleket jelent, amit jövőbeni működési többletéből tud a város visszafizetni. Gyöngyös finanszírozási bevételeinek nagyja  az előző évi gazdálkodás maradványa, vagyis a folyamatban lévő uniós fejlesztések még fel nem használt támogatásai, illetve a tavalyi évről maradt szabad maradvány. Mindezek egyelőre tervszámok, a ténylegesen teljesült összegeket a 2021-ben elfogadott zárszámadás tartalmazza majd. A zárszámadást követően az oldalon a költségvetés kormányzati funkciók szerinti bontását (oktatás, egészségügy stb.) is elérhetővé tesszük.</t>
   </si>
   <si>
@@ -1033,6 +1033,9 @@
     <t xml:space="preserve">Fejlesztési hitel, értékpapírok eladása</t>
   </si>
   <si>
+    <t xml:space="preserve">Az ebből származó bevétel fejlesztéseket finanszíroz.</t>
+  </si>
+  <si>
     <t xml:space="preserve">FT1</t>
   </si>
   <si>
@@ -1048,7 +1051,7 @@
     <t xml:space="preserve">Személyi juttatások</t>
   </si>
   <si>
-    <t xml:space="preserve">Illetmények, munabérek, más juttatások (pl. képviselői tiszteletdíj), megbízási díj, reprezentációs kiadás, költségtérítés.</t>
+    <t xml:space="preserve">Illetmények, munkabérek, más juttatások (pl. képviselői tiszteletdíj), megbízási díj, reprezentációs kiadás, költségtérítés.</t>
   </si>
   <si>
     <t xml:space="preserve">K11</t>
@@ -2547,7 +2550,7 @@
     <t xml:space="preserve">assets/img/eszaknyugati-varosresz2.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">assets/img/fejlesztesek-01.svg</t>
+    <t xml:space="preserve">assets/img/matrafured_latvany_04.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Mátrafüredi parkerdő közjóléti fejlesztése</t>
@@ -2570,6 +2573,32 @@
 Kódszám: TOP-7.1.1-16-H-ERFA-2018-00011
 Támogatási összeg: 230 000 000 Ft. ill. 135 000 000 Ft.
 A MÁTRA MŰVELŐDÉSI KÖZPONT (MMK) energetikai korszerűsítése és a „Kulcs Projekt” című pályázatok egymásra építve, együttesen teszik lehetővé az intézmény teljeskörű modernizálását. Az energetikai korszerűsítés keretében megvalósult az épület falainak és tetejének hőszigetelése, a külső nyílászárók cseréje, valamint az épület színháztermének szellőzési lehetősége és klimatizálása is. A színházterem fölötti lapostetőn napelemeket helyeztek el. A fejlesztésnek köszönhetően az MMK a környezeti terhelés csökkentésével, innovatív megoldások beépítésével modern közösségi térként fogadja látogatóit. A ‘KULCS PROJEKT’ keretében az épület belső közösségi funkciójának, infrastruktúrájának és eszközállományának megújítása a cél. Felújításra kerül az elektromos hálózat,  emellett a mai elvárásoknak megfelelő tűz-, és érintésvédelmi fejlesztések történnek. A fejlesztések révén az épület funkciói bővülnek, így hatékonyabban tudja majd kiszolgálni a helyi közösség igényeit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/img/jeruzsalem-uti-ovoda.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kódszám: TOP-1.4.1-16-HE1-2017-00021
+Támogatási összeg: 249 999 080 Ft.
+A fejlesztési koncepció az volt, hogy a bölcsődei új férőhelyek létrehozásán túlmenően az
+óvoda és bölcsőde meglévő épületegyüttese energetikailag is megfeleljen a mai kor
+igényeinek. A projekt lezárultával a gondozási egységek száma egyről kettőre, a
+gyerekszobák száma kettőről négyre emelkedik, ennek köszönhetően a fogadható
+gyermekek létszáma 26 főről 50 főre nőhet. A megvalósítás során megtörténik az intézmény
+energetikai célú felújítása, szigeteléssel, nyílászáró cserével, továbbá a bölcsőde részére új
+épületrész épül.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/img/fejlesztesek-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koronavírus-járvány elleni védekezés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/img/fejlesztesek-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kormányzati elvonások</t>
   </si>
 </sst>
 </file>
@@ -2579,7 +2608,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2633,8 +2662,15 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00396C"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2657,6 +2693,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -2694,7 +2736,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2727,7 +2769,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2808,15 +2854,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="C40" activeCellId="1" sqref="C13 C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.85"/>
@@ -3384,8 +3430,6 @@
         <v>139</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://gyongyos.deepdata.hu/"/>
@@ -3408,12 +3452,12 @@
   <dimension ref="A1:C317"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
+      <selection pane="bottomLeft" activeCell="A39" activeCellId="1" sqref="C13 A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.86"/>
@@ -4257,675 +4301,677 @@
       <c r="B89" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C89" s="4"/>
+      <c r="C89" s="4" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C92" s="4"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C95" s="4"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C103" s="4"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C104" s="4"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C109" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C121" s="4"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C122" s="4"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C127" s="4"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C128" s="4"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C129" s="4"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C130" s="4"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C138" s="4"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C139" s="4"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C143" s="4"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C145" s="4"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C152" s="4"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>209</v>
@@ -4934,61 +4980,61 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C161" s="4"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>196</v>
@@ -4997,903 +5043,903 @@
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C174" s="4"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C175" s="4"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C176" s="4"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C178" s="4"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C179" s="4"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C180" s="4"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C181" s="4"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C183" s="4"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C184" s="4"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C185" s="4"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C186" s="4"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C188" s="4"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C189" s="4"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C190" s="4"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C191" s="4"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C192" s="4"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C193" s="4"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C198" s="4"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C199" s="4"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C200" s="4"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C204" s="4"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C210" s="4"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C211" s="4"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C212" s="4"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C213" s="4"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C214" s="4"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C215" s="4"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C216" s="4"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C217" s="4"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C219" s="4"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C223" s="4"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C224" s="4"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C225" s="4"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C229" s="4"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C230" s="4"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C232" s="4"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C236" s="4"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C238" s="4"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C239" s="4"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C240" s="4"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C241" s="4"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C243" s="4"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C245" s="4"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C246" s="4"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C247" s="4"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C248" s="4"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C250" s="4"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C252" s="4"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C255" s="4"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C256" s="4"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C257" s="4"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C259" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C260" s="4"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C261" s="4"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C262" s="4"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C263" s="4"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C264" s="4"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C265" s="4"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>209</v>
@@ -5902,34 +5948,34 @@
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C267" s="4"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C268" s="4"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C269" s="4"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>198</v>
@@ -5938,16 +5984,16 @@
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C271" s="4"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>212</v>
@@ -5956,7 +6002,7 @@
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>207</v>
@@ -5965,406 +6011,406 @@
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C274" s="4"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C275" s="4"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C277" s="4"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C278" s="4"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C279" s="4"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C280" s="4"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C281" s="4"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C282" s="4"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C283" s="4"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C284" s="4"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C285" s="4"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C286" s="4"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C287" s="4"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C288" s="4"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C289" s="4"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C290" s="4"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C291" s="4"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C292" s="4"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C293" s="4"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C294" s="4"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C295" s="4"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C296" s="4"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C298" s="4"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C299" s="4"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C300" s="4"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C301" s="4"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C302" s="4"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C303" s="4"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C304" s="4"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C305" s="4"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C306" s="4"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C307" s="4"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C308" s="4"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C309" s="4"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C310" s="4"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C311" s="4"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C313" s="4"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C314" s="4"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C315" s="4"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C316" s="4"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -6385,13 +6431,13 @@
   </sheetPr>
   <dimension ref="A1:C314"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="1" sqref="C13 A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.86"/>
@@ -6506,10 +6552,10 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -6675,16 +6721,16 @@
         <v>204</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C30" s="4"/>
     </row>
@@ -7253,506 +7299,508 @@
       <c r="B91" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C91" s="4"/>
+      <c r="C91" s="4" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C113" s="4"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C114" s="4"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C115" s="4"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C119" s="4"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="C121" s="4"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C122" s="4"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C123" s="4"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C124" s="4"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C125" s="4"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C126" s="4"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C127" s="4"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C128" s="4"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C129" s="4"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C130" s="4"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C138" s="4"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C139" s="4"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>209</v>
@@ -7761,61 +7809,61 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C145" s="4"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>196</v>
@@ -7824,1011 +7872,1011 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C152" s="4"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C160" s="4"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C161" s="4"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C174" s="4"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C175" s="4"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C176" s="4"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C178" s="4"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C179" s="4"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C180" s="4"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C181" s="4"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C183" s="4"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C184" s="4"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C185" s="4"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C186" s="4"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C188" s="4"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C189" s="4"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C190" s="4"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C191" s="4"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C192" s="4"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C193" s="4"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C198" s="4"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C199" s="4"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C200" s="4"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C204" s="4"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C212" s="4"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C213" s="4"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C214" s="4"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C216" s="4"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C217" s="4"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C223" s="4"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C224" s="4"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C225" s="4"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C229" s="4"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C230" s="4"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C231" s="4"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C232" s="4"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C236" s="4"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C238" s="4"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C239" s="4"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C240" s="4"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C241" s="4"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C243" s="4"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C244" s="4"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C245" s="4"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C246" s="4"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C247" s="4"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C250" s="4"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C254" s="4"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C255" s="4"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C256" s="4"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C257" s="4"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C258" s="4"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C259" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C260" s="4"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>209</v>
@@ -8837,34 +8885,34 @@
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C262" s="4"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C263" s="4"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C264" s="4"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>198</v>
@@ -8873,16 +8921,16 @@
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C266" s="4"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>212</v>
@@ -8891,7 +8939,7 @@
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>207</v>
@@ -8900,421 +8948,421 @@
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C269" s="4"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C270" s="4"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C272" s="4"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C273" s="4"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C274" s="4"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C275" s="4"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C276" s="4"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C277" s="4"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C278" s="4"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C279" s="4"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C280" s="4"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C281" s="4"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C282" s="4"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C283" s="4"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C284" s="4"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C285" s="4"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C286" s="4"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C287" s="4"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C288" s="4"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C289" s="4"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C290" s="4"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C291" s="4"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C292" s="4"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C294" s="4"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C295" s="4"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C296" s="4"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C297" s="4"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C298" s="4"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C299" s="4"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C300" s="4"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C301" s="4"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C302" s="4"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C303" s="4"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C304" s="4"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C305" s="4"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C306" s="4"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C307" s="4"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C308" s="4"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C310" s="4"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C311" s="4"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C312" s="4"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C313" s="4"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C314" s="4"/>
     </row>
@@ -9334,15 +9382,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="118.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.43"/>
@@ -9350,165 +9398,225 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="87.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="189" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>835</v>
+      <c r="C2" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="189" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>838</v>
+      <c r="C3" s="4" t="s">
+        <v>839</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="252" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>842</v>
+      <c r="C6" s="4" t="s">
+        <v>843</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="252" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>842</v>
+      <c r="C7" s="4" t="s">
+        <v>843</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>846</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>846</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>848</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>849</v>
+      </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+    <row r="11" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>848</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>849</v>
+      </c>
       <c r="F11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>851</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -16,14 +16,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="865">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">seo.ogImage</t>
   </si>
   <si>
-    <t xml:space="preserve">https://kozertheto.k-monitor.hu/assets/img/mintavaros-01.png </t>
+    <t xml:space="preserve">varoshaza</t>
   </si>
   <si>
     <t xml:space="preserve">Facebook/Twitter megosztáskor az előnézeti kártyában megjelenő kép URL-je.</t>
@@ -244,7 +244,26 @@
     <t xml:space="preserve">header.headline</t>
   </si>
   <si>
-    <t xml:space="preserve">Ezen az oldalon megtekintheted Gyöngyös költségvetését és fejlesztéseit átlátható módon, interaktív ábrák segítségével!</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00396C"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ezen az oldalon megtekintheti Gyöngyös költségvetését és fejlesztéseit átlátható módon, interaktív ábrák segítségével. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">A 2021-es költségvetés elfogadása februárban várható, ezt követően frissítjük az oldalt!</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Fejléc szakaszban megjelenő headline.</t>
@@ -271,7 +290,7 @@
     <t xml:space="preserve">welcome.leftBlock</t>
   </si>
   <si>
-    <t xml:space="preserve">A költségvetési rendelet az önkormányzat egyik legfontosabb helyi jogszabálya. Ez határozza meg, hogy egy adott település egy adott évben mennyi pénzből gazdálkodhat. Ez mutatja meg, hogy bevételei milyen forrásokból származnak, illetve mennyit szánhat kiadásokra, például a városi intézmények fenntartására, vagy éppen beruházásokra. 
+    <t xml:space="preserve">A költségvetési rendelet az önkormányzat egyik legfontosabb helyi jogszabálya. Ez határozza meg, hogy egy  település az  adott évben mennyi pénzből gazdálkodhat. Ez mutatja meg, hogy bevételei milyen forrásokból származnak, illetve mennyit szánhat kiadásokra, például a városi intézmények fenntartására, vagy éppen beruházásokra. 
 Gyöngyös Város Önkormányzata költségvetési rendeletét évek óta közzéteszi a honlapján, szöveges és táblázatos formában egyaránt. Ezek áttekintése és megértése az állampolgárok számára sokszor nem egyszerű, hiszen ahhoz, hogy a költségvetés megfeleljen a céloknak és a törvényi előírásoknak is, megalkotásakor megannyi szakmai előírást kell követni.</t>
   </si>
   <si>
@@ -281,7 +300,7 @@
     <t xml:space="preserve">welcome.rightBlock</t>
   </si>
   <si>
-    <t xml:space="preserve">Azért hoztuk létre ezt az oldalt, hogy Gyöngyös gazdálkodását gyorsan és közérthető módon mutassuk be a lakosságnak. Célunk, hogy táblázatok átnézése nélkül is bárki számára egyértelmű legyen, mekkora a költségvetés főösszege és hogyan tevődnek össze az egyes bevételi vagy kiadási tételek.</t>
+    <t xml:space="preserve">Azért hoztuk létre ezt az oldalt, hogy Gyöngyös gazdálkodását gyorsan és közérthető módon mutassuk be a lakosságnak. Célunk, hogy táblázatok átnézése nélkül is bárki számára egyértelmű legyen, mekkora a költségvetés főösszege és hogyan tevődnek össze az egyes bevételi vagy kiadási tételek. A grafikonok alatt tekintsék meg a kiemelt projektjeinket, benne a tervezett részvételi költségvetés leírását is!</t>
   </si>
   <si>
     <t xml:space="preserve">Köszöntő szakasz jobb oldali hasábjának szövege. Markdown jelölések használhatóak (pl. formázás, linkek).</t>
@@ -323,8 +342,8 @@
     <t xml:space="preserve">moreInfo.text</t>
   </si>
   <si>
-    <t xml:space="preserve">Az oldal, mely Magyarországon elsők között arra törekszik, hogy bárki  számára könnyen befogadható és értelmezhető képet adjon az önkormányzat gazdálkodásáról, a K-Monitor önkéntes szakmai segítségével készült el.  Forráskódja a projekt megnevezésével ingyenesen felhasználható. Az ábrákon szereplő adatok forrása a város költségvetési rendeletének [mellékletei] (http://njt.hu/njtonkorm.php?njtcp=eh8eg3ed6dr3eo6dt1ee6em1cj8ca7ca6bw9cd8ca7ce6i), és a Kincstár számára elküldött időközi beszámolók. A költségvetésbe beépül valamennyi önkormányzati fenntartású intézmény saját költségvetése, de az önkormányzati tulajdonban lévő gazdasági társaságok feladataihoz adott önkormányzati támogatás,  a társaságok által az önkormányzat nevében ellátott szolgáltatások kapcsán fizetett díj, illetve az önkormányzati vagyonnal összefüggésben e társaságok részére jóváhagyott kiadás és bevétel.
-Egy adott év költségvetési ciklusa a megelőző év végén indul a tervezéssel, illetve Gyöngyös esetében koncepció kialakításával. A költségvetés tervezetét a jegyző készíti el, majd a polgármester a központi költségvetésről szóló törvény hatálybalépését követő 45. napig (**február 15-éig**) nyújtja be a testületnek, amit ezt követően **március közepéig** el kell fogadni. A költségvetési gazdálkodás záró mozzanata a kincstári beszámoló elkészítése, majd erre alapozva a zárszámadási rendelet elfogadása a következő év **május 31-éig**. A 2020-ra vonatkozó zárszámadás után az oldalon a költségvetés kormányzati funkciók szerinti bontását (oktatás, egészségügy stb.) is elérhetővé tesszük.</t>
+    <t xml:space="preserve">Az oldal, mely Magyarországon elsők között arra törekszik, hogy bárki számára könnyen befogadható és értelmezhető képet adjon az önkormányzat gazdálkodásáról, a K-Monitor önkéntes szakmai segítségével készült el. Forráskódja a projekt megnevezésével ingyenesen felhasználható. Az ábrákon szereplő adatok forrása a város költségvetési rendeletének [mellékletei] (http://njt.hu/njtonkorm.php?njtcp=eh8eg3ed6dr3eo6dt1ee6em1cj8ca7ca6bw9cd8ca7ce6i), és a Kincstár számára elküldött időközi beszámolók. A költségvetésbe beépül valamennyi önkormányzati fenntartású intézmény saját költségvetése, az önkormányzati tulajdonban lévő gazdasági társaságok feladataihoz adott önkormányzati támogatás,  a társaságok által az önkormányzat nevében ellátott szolgáltatások kapcsán fizetett díj, illetve az önkormányzati vagyonnal összefüggésben e társaságok részére jóváhagyott kiadás és bevétel.
+Egy adott év költségvetési ciklusa a megelőző év végén indul a tervezéssel, illetve Gyöngyös esetében koncepció kialakításával. A költségvetés tervezetét a jegyző készíti el, majd a polgármester a központi költségvetésről szóló törvény hatálybalépését követő 45. napig (**február 15-éig**) nyújtja be a testületnek, amit ezt követően **március közepéig** el kell fogadni. A költségvetési gazdálkodás záró mozzanata a kincstári beszámoló elkészítése, majd erre alapozva a zárszámadási rendelet elfogadása a következő év **május 31-éig**. A 2020-ra vonatkozó zárszámadás elfogadása után az oldalon a költségvetés kormányzati funkciók szerinti bontását (oktatás, egészségügy stb.) is elérhetővé tesszük.</t>
   </si>
   <si>
     <t xml:space="preserve">További információ ablak címsora. Markdown jelölések használhatóak (pl. formázás, linkek).</t>
@@ -342,7 +361,7 @@
     <t xml:space="preserve">inex.subtitle</t>
   </si>
   <si>
-    <t xml:space="preserve">Gyöngyös idei költségvetése:</t>
+    <t xml:space="preserve">A költségvetés főösszege:</t>
   </si>
   <si>
     <t xml:space="preserve">Mérleg ábra fejléce.</t>
@@ -351,8 +370,8 @@
     <t xml:space="preserve">inex.text</t>
   </si>
   <si>
-    <t xml:space="preserve">Az oldalon a 29 ezer lakosú Gyöngyös 2020-as költségvetése látható, mely a korábban elnyert uniós  támogatások idei évre jutó tételeivel együtt meghaladja a 11 milliárd Ft-ot. Ebből látja el a város szerteágazó működési feladatait és valósít meg fejlesztéseket. A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A **működési költségvetés (kék)** a napi szintű, zavartalan feladatellátást biztosítja, a **felhalmozási költségvetés (lila)** pedig a beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (első sorban helyi adók, illetve állami normatívák, nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások stb.) rendszeresen, ciklikusan jelentkeznek, míg a  felhalmozási tételek (pl. uniós és állami pályázatok) eseti jellegűek.
-A működési költségvetés egyenlege törvényi előírás alapján nem lehet negatív, hiszen ekkor az önkormányzat gazdálkodása nem volna fenntartható külső segítség nélkül. A működés többlete mellett az önkormányzat hosszú távú, színvonalas feladatellátásához szükséges fejlesztésekre fordítható a kifejezetten fejlesztésre kapott, illetve a **finanszírozási bevétel (zöld)**. Utóbbi csekély részt fejlesztésekre felvett hiteleleket jelent, amit jövőbeni működési többletéből tud a város visszafizetni. Gyöngyös finanszírozási bevételeinek nagyja  az előző évi gazdálkodás maradványa, vagyis a folyamatban lévő uniós fejlesztések még fel nem használt támogatásai, illetve a tavalyi évről maradt szabad maradvány. Mindezek egyelőre tervszámok, a ténylegesen teljesült összegeket a 2021-ben elfogadott zárszámadás tartalmazza majd. A zárszámadást követően az oldalon a költségvetés kormányzati funkciók szerinti bontását (oktatás, egészségügy stb.) is elérhetővé tesszük.</t>
+    <t xml:space="preserve">**Segítünk értelmezni!** Az oldalon Gyöngyös Város Önkormányzatának és intézményeinek 2020-as költségvetése látható. A Mérlegben részletezett rendeleti főösszeg számviteli okokból duplikálva tartalmazza az intézmények finanszírozását és feltünteti az éven belül folyószámlahitel-tranzakciókat (**szürke**). Ezek nélkül, a korábban elnyert uniós támogatások 2020-ra jutó tételeivel Gyöngyös költségvetési kiadásai meghaladják a 11,5 milliárd Ft-ot. Ebből látta el a város szerteágazó működési feladatait és valósított meg fejlesztéseket. A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A **működési költségvetés (kék)** a napi szintű, zavartalan feladatellátást biztosítja, míg a **felhalmozási költségvetés (lila)**  beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (főként helyi adók, illetve állami normatívák, nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások stb.) rendszeresen, ciklikusan jelentkeznek, míg a  felhalmozási tételek (pl. uniós és állami pályázatok) eseti jellegűek.
+A működési költségvetés egyenlege törvényi előírás alapján nem lehet negatív, hiszen ekkor az önkormányzat gazdálkodása nem volna fenntartható külső segítség nélkül. A működés többlete mellett az önkormányzat hosszú távú, színvonalas feladatellátásához szükséges fejlesztésekre fordíthatók a kifejezetten fejlesztésre kapott, illetve a **finanszírozási bevételek (zöld)**. Utóbbi csekély részt fejlesztésekre felvett hiteleket jelent, amit jövőbeni működési többletéből tud a város visszafizetni. Gyöngyös finanszírozási bevételeinek nagyja az előző évi gazdálkodás maradványa: a folyamatban lévő uniós fejlesztések még fel nem használt támogatásai, illetve a megelőző évről maradt szabad maradvány. Mindezek egyelőre tervszámok, a ténylegesen teljesült összegeket a 2021-ben elfogadandó zárszámadás tartalmazza. Ennek birtokában az oldalon a költségvetés kormányzati funkciók (oktatás, egészségügy stb.) szerinti bontását is elérhetővé tesszük.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérleg szakasz ábra alatti szövege. Markdown jelölések használhatóak (pl. formázás, linkek).</t>
@@ -382,7 +401,7 @@
     <t xml:space="preserve">vis.econHint</t>
   </si>
   <si>
-    <t xml:space="preserve">Működési vagy felhalmozási jellegük alapján mutatja meg a kiadások összetételét, hogy mekkora a személyi kiadások, a kapcsolódó munkáltatói járulékok, a dologi kiadások, a beruházási és felújítási kiadások, az államháztartáson belüli és kívüli támogatások, transzferek összege a költségvetésben.</t>
+    <t xml:space="preserve">Működési vagy felhalmozási jellegük alapján csoportosítja a kiadásokat: mekkora a személyi kiadások, járulékok, dologi kiadások, beruházási és felújítási kiadások, államháztartáson belüli és kívüli támogatások, transzferek összege a költségvetésben.</t>
   </si>
   <si>
     <t xml:space="preserve">Közgazdasági nézetre váltó gomb magyarázata (tooltip).</t>
@@ -400,7 +419,7 @@
     <t xml:space="preserve">vis.funcHint</t>
   </si>
   <si>
-    <t xml:space="preserve">A költségvetési kiadásokat osztályozza, azok társadalmi-gazdasági cél szerinti összetételét mutatja. Az általános közszolgáltatásoktól a védelmi kiadásokig összesen 10 kategóriában tartalmazza a kerület működésének területeit.</t>
+    <t xml:space="preserve">A költségvetési kiadásokat azok társadalmi-gazdasági célja szerinti csoportosítja, függetlenül azok működési-felhalmozási jellegétől vagy költségtípusától. A költségvetést összesen 10 kormányzati funkcióra és annak alkategóriáira bontja. Ez a nézet a zárszámadási rendelet elfogadását követően lesz elérhető.  </t>
   </si>
   <si>
     <t xml:space="preserve">Funkcionális nézetre váltó gomb magyarázata (tooltip).</t>
@@ -1021,6 +1040,9 @@
     <t xml:space="preserve">Előző év költségvetési maradványának igénybevétele</t>
   </si>
   <si>
+    <t xml:space="preserve">A korábbi évek gazdálkodásának szabadon felhasználható eredménye, illetve a folyamatban lévő fejlesztési projektek még fel nem használt támogatásai.</t>
+  </si>
+  <si>
     <t xml:space="preserve">B814</t>
   </si>
   <si>
@@ -1042,7 +1064,13 @@
     <t xml:space="preserve">Áthúzódó projektek, szabad maradvány, elszámolások</t>
   </si>
   <si>
-    <t xml:space="preserve">Korábbi évek gazdálkodásának szabadon felhasználható eredménye, illetve folyamatban lévő fejlesztések még fel nem használt támogatásai.</t>
+    <t xml:space="preserve">IB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irányítószervi támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az irányítószervi támogatások - az önkormányzat intézményeiknek adott támogatások - számviteli okból duplán szerepelnek a költségvetés főösszegében. A valóságban ezek természetesen csak egyszer kerülnek elköltésre, így a bevételi és kiadási ábrákon már csak végső rendeltetésük szerint szerepeltetjük őket. Ez magyarázza, hogy ott a költségvetés főösszegénél ennyivel kisebb összeg kerül bemutatásra.</t>
   </si>
   <si>
     <t xml:space="preserve">K1</t>
@@ -2407,6 +2435,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t xml:space="preserve">IK1</t>
+  </si>
+  <si>
     <t xml:space="preserve">B11501</t>
   </si>
   <si>
@@ -2422,6 +2453,15 @@
     <t xml:space="preserve">Szennyvízelvezetés és tisztítás fejlesztése</t>
   </si>
   <si>
+    <t xml:space="preserve">IB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folyószámlahitel lehívás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az önkormányzatok folyószámla-hitelkeretet tartanak fenn, hogy így biztosítsák a folyamatos likviditást. Számviteli értelemben e soron minden egyes tranzakciót bevételként és kiadásként is könyvelni kell, így a feltüntetett összeg a költségvetés-módosításig megtörtént tranzakciók összértékét mutatja. Figyelem! Finanszírozási és nem költségvetési kiadásról van szó, Gyöngyös a törvényi előírásnak megfelelően minden likvid hitelét visszafizette az év végéig.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ide tartoznak a helyettesítés címén folyósítandó juttatások, a készenléti és ügyeletí díjak, a túlóradíjak és a túlszolgálati díjak.</t>
   </si>
   <si>
@@ -2516,6 +2556,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gyöngyösi Kulturális NKft. Felhalm. támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folyószámlahitel törlesztés (IK2)</t>
   </si>
   <si>
     <t xml:space="preserve">nodeId</t>
@@ -2544,7 +2590,7 @@
   <si>
     <t xml:space="preserve">Kódszám: TOP-4.3.1-15-HE1-2016-00001
 Támogatási összeg: 520 000 000 Ft
-Gyöngyös város északnyugati városrészében két szegregált terület található, a városban az egyik legrosszabb műszaki állapotú épületállománnyal rendelkeznek. A városrész felújítása, integrációja érdekében az Önkormányzat 520 millió Ft összköltségű pályázatot nyújtott be 2016-ban a TOP „Leromlott városi területek rehabilitációja” című felhívásra, melyet 2017-ben hagytak jóvá. A projekt keretén belül megvalósul a Petőfi Sándor utca 32-34 szám alatt található barokk stílusú, műemlékként számontartott kastély, a „Haller ház” felújítása. is. A lakófunkció erősítése érdekében a területen megtörténik több bérlakás komfortosítása. Ezen kívül kialakításra kerülnek közösségi célra hasznosítható terek, illetve közmű-infrastruktúra és úthálózat kerül kiépítésre.</t>
+Gyöngyös  északnyugati városrészében két szegregált terület található, melyek a városban az egyik legrosszabb műszaki állapotú épületállománnyal rendelkeznek. A városrész felújítása, integrációja érdekében az Önkormányzat 520 millió Ft összköltségű pályázatot nyújtott be 2016-ban a TOP „Leromlott városi területek rehabilitációja” című felhívásra, melyet 2017-ben hagytak jóvá. A projekt keretén belül megvalósul a Petőfi Sándor utca 32-34 szám alatt található barokk stílusú, műemlékként számontartott kastély, a „Haller ház” felújítása. is. A lakófunkció erősítése érdekében a területen megtörténik több bérlakás komfortosítása. Ezen kívül kialakításra kerülnek közösségi célra hasznosítható terek, illetve közmű-infrastruktúra és úthálózat kerül kiépítésre.</t>
   </si>
   <si>
     <t xml:space="preserve">assets/img/eszaknyugati-varosresz2.jpg</t>
@@ -2553,11 +2599,10 @@
     <t xml:space="preserve">assets/img/matrafured_latvany_04.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Mátrafüredi parkerdő közjóléti fejlesztése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Támogatási konstrukció: Az erdei ökoszisztémák térítésmentesen nyújtott közjóléti
-funkcióinak fejlesztése (VP-4-8.5.2.-17)
+    <t xml:space="preserve">A mátrafüredi parkerdő közjóléti fejlesztése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Támogatási konstrukció: Az erdei ökoszisztémák térítésmentesen nyújtott közjóléti funkcióinak fejlesztése (VP-4-8.5.2.-17)
 A projekt teljes költsége: 79 368 944 Ft
 Támogatási összeg: 66 781 497 Ft
 Az elkészített és jóváhagyott közjóléti tervben foglaltaknak megfelelően a mátrafüredi parkerdőben tervezett erdei pihenőhelyhez kialakításra kerül kettő játszótér, egy erdei tornapálya, négy tűzrakóhely és két illemhely, valamint egy védőház is. Az ezekhez szükséges tájékoztató táblák, illetve 15 pad, 8 bútorgarnitúra és 16 kerékpártámasz is kihelyezésre kerül.</t>
@@ -2566,49 +2611,64 @@
     <t xml:space="preserve">assets/img/muvelodesi-kozpont.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">A Mátra Művelődési Központ energetikai korszerűsítése és „KULCS PROJEKT”</t>
+    <t xml:space="preserve">A Mátra Művelődési Központ energetikai korszerűsítése és a „KULCS PROJEKT”</t>
   </si>
   <si>
     <t xml:space="preserve">Kódszám: TOP-3.-2.-1-15-HE1-2016-00005
 Kódszám: TOP-7.1.1-16-H-ERFA-2018-00011
 Támogatási összeg: 230 000 000 Ft. ill. 135 000 000 Ft.
-A MÁTRA MŰVELŐDÉSI KÖZPONT (MMK) energetikai korszerűsítése és a „Kulcs Projekt” című pályázatok egymásra építve, együttesen teszik lehetővé az intézmény teljeskörű modernizálását. Az energetikai korszerűsítés keretében megvalósult az épület falainak és tetejének hőszigetelése, a külső nyílászárók cseréje, valamint az épület színháztermének szellőzési lehetősége és klimatizálása is. A színházterem fölötti lapostetőn napelemeket helyeztek el. A fejlesztésnek köszönhetően az MMK a környezeti terhelés csökkentésével, innovatív megoldások beépítésével modern közösségi térként fogadja látogatóit. A ‘KULCS PROJEKT’ keretében az épület belső közösségi funkciójának, infrastruktúrájának és eszközállományának megújítása a cél. Felújításra kerül az elektromos hálózat,  emellett a mai elvárásoknak megfelelő tűz-, és érintésvédelmi fejlesztések történnek. A fejlesztések révén az épület funkciói bővülnek, így hatékonyabban tudja majd kiszolgálni a helyi közösség igényeit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assets/img/jeruzsalem-uti-ovoda.jpg</t>
+A MÁTRA MŰVELŐDÉSI KÖZPONT (MMK) energetikai korszerűsítése és a „Kulcs Projekt” című pályázatok egymásra építve, együttesen teszik lehetővé az intézmény teljeskörű modernizálását. Az energetikai korszerűsítés keretében megvalósult az épület falainak és tetejének hőszigetelése, a külső nyílászárók cseréje, valamint az épület színháztermének szellőzési lehetősége és klimatizálása is. A színházterem fölötti lapostetőn napelemeket helyeztek el. A fejlesztésnek köszönhetően az MMK a környezeti terhelés csökkentésével, innovatív megoldások beépítésével modern közösségi térként fogadja látogatóit. A ‘KULCS PROJEKT’ keretében az épület belső közösségi funkciójának, infrastruktúrájának és eszközállományának megújítása a cél. Felújításra kerül az elektromos hálózat, emellett a mai elvárásoknak megfelelő tűz-, és érintésvédelmi fejlesztések történnek. A fejlesztések révén az épület funkciói bővülnek, így hatékonyabban tudja majd kiszolgálni a helyi közösség igényeit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeruzsálem úti óvoda.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Jeruzsálem úti bölcsőde és óvoda fejlesztése</t>
   </si>
   <si>
     <t xml:space="preserve">Kódszám: TOP-1.4.1-16-HE1-2017-00021
 Támogatási összeg: 249 999 080 Ft.
-A fejlesztési koncepció az volt, hogy a bölcsődei új férőhelyek létrehozásán túlmenően az
-óvoda és bölcsőde meglévő épületegyüttese energetikailag is megfeleljen a mai kor
-igényeinek. A projekt lezárultával a gondozási egységek száma egyről kettőre, a
-gyerekszobák száma kettőről négyre emelkedik, ennek köszönhetően a fogadható
-gyermekek létszáma 26 főről 50 főre nőhet. A megvalósítás során megtörténik az intézmény
-energetikai célú felújítása, szigeteléssel, nyílászáró cserével, továbbá a bölcsőde részére új
-épületrész épül.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assets/img/fejlesztesek-01.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koronavírus-járvány elleni védekezés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assets/img/fejlesztesek-02.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kormányzati elvonások</t>
+A fejlesztési koncepció az volt, hogy a bölcsődei új férőhelyek létrehozásán túlmenően az óvoda és bölcsőde meglévő épületegyüttese energetikailag is megfeleljen a mai kor igényeinek. A projekt lezárultával a gondozási egységek száma egyről kettőre, a gyerekszobák száma kettőről négyre emelkedik, ennek köszönhetően a fogadható gyermekek létszáma 26 főről 50 főre nőhet. A megvalósítás során megtörténik az intézmény energetikai célú felújítása, szigeteléssel, nyílászáró cserével, továbbá a bölcsőde részére új épületrész épül.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/img/jeruzsalem-uti-ovoda.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/img/korona.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A koronavírus-járvány pénzügyi hatásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A járvány, a vele összefüggő gazdasági környezetváltozás, valamint a kormányzati intézkedések hatására jelentősen romlott Gyöngyös költségvetési helyzete, emiatt  szükséges volt módosítani a költségvetési rendeletet. Az oldal ábráin is nyomon követhető a változás: a felső menüsorban lévő évválasztó gomb segítségével mindkét verziót megtekintjük, de itt külön is összefoglaljuk a főbb változásokat.
+**Bevételkiesés:**
+- Adóbevétel csökkenés: A legnagyobb bevételt jelentő helyi adó az iparűzési adó, amely a gazdasági visszaesés miatt várhatólag 388 millió Ft-tal kevesebb lesz ahhoz képest, amit a 2020 februárjában elfogadott költségvetési rendeletben tervezett a képviselő-testület.
+- Kormányzati elvonások: A kormány 2020-ban több olyan intézkedést hozott, amely negatívan érintették az önkormányzatok pénzügyi helyzetét. A gépjárműadóból befolyt bevételt a kormány teljesen magához vonta. Ez 100,2 millió Ft kiesést okozott Gyöngyösnek. Az idegenforgalmi adóból származó bevételek összességében 30 millió Ft-tal csökkentek. A veszélyhelyzet tavaszi és az év végi időszaka alatt a parkolást ingyenessé tette a kormány. Tavasszal ez 19,5 millió Ft kiesést okozott, az év végi időszak kapcsán hasonló kiesés várható. A kormányzati elvonások és intézkedések összességében kb. 170 millió Ft kiesést eredményeztek.
+**Kiadásnövekedés:** A járványhelyzet kezelése érdekében a gyöngyösi önkormányzat számos lépést tett, melyek egy része pénzügyi kiadással járt. Ilyen volt a maszkok és fertőtlenítőszerek beszerzése, az ózongenerátorok vásárlása az óvodák és bölcsődék számára, illetve a járványhelyzettel kapcsolatos tájékoztatás (szórólapok, rendkívüli Gyöngyösi Újság, a koronavírus aloldal működtetése). A rendkívüli kiadások összértéke 14,4 millió Ft.
+**A fentieket összeadva közel 600 millió Ft-tal romlott Gyöngyös költségvetési helyzete. Érzékeltetésképp: ez az összeg körülbelül annyi, mint 6 óvoda éves fenntartási költsége, illetve kilencszer annyi, mint amennyibe a közvilágítás kerül. A 2021-es évre a kormány a kis- és középvállalkozások iparűzési adójának a felét elengedte, ez további bevételcsökkenést jelent majd Gyöngyös városának.**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/img/participation.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Részvételi költségvetés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-től szeretnénk meghonosítani a részvételi költségvetés intézményét Gyöngyösön. A cél az, hogy az adóforintok egy részéről a polgárok döntsenek közvetlen módon, szavazással. A projekt tervezett lépései:
+1. **Javaslattétel:** Bárki benyújthat javaslatot olyan fejlesztésekre, amely szerinte leginkább szolgálná a város érdekét. Fontos, hogy a javaslatok ne egy szűk területre vonatkozzanak, vagy egy szűk társadalmi csoporttal legyenek kapcsolatosak, hanem a város vagy városrész egészének az érdekét szolgálják. Pl. parkosítás, több kamera, több forrás a köztisztaságért.
+2. **Előszűrés:** A beérkezett javaslatokat az önkormányzat megvizsgálja és kiszűri azokat, amelyek valamilyen jogi vagy gazdasági tényező miatt nem megvalósíthatóak, már eleve be vannak tervezve az adott költségvetési évre. A megmaradt javaslatok egy részben gyöngyösi lakosokból álló bizottság elé kerülnek, amely véglegesíti a szavazható javaslatok listáját.
+3.  **Döntés** A javaslatokról a gyöngyösi lakosok szavazhatnak, a legtöbb szavazatot kapó javaslatokat az önkormányzat megvalósítja.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2634,6 +2694,31 @@
       <charset val="238"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Times New Roman CE"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial CE"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
@@ -2657,20 +2742,27 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF00396C"/>
-      <name val="Calibri"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2697,6 +2789,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
       </patternFill>
@@ -2711,7 +2809,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2735,13 +2833,41 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2749,42 +2875,61 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="ktsgv" xfId="20"/>
+    <cellStyle name="Normál 2" xfId="21"/>
+    <cellStyle name="Normál 3" xfId="22"/>
+    <cellStyle name="Normál 3 2" xfId="23"/>
+    <cellStyle name="Normál 4" xfId="24"/>
+    <cellStyle name="Normál 4 2" xfId="25"/>
+    <cellStyle name="Normál 5" xfId="26"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2857,9 +3002,9 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C40" activeCellId="1" sqref="C13 C40"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="C5 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3291,7 +3436,7 @@
       <c r="A39" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -3449,12 +3594,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C317"/>
+  <dimension ref="A1:C319"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A39" activeCellId="1" sqref="C13 A39"/>
+      <selection pane="bottomLeft" activeCell="C319" activeCellId="1" sqref="C5 C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4283,47 +4428,49 @@
       <c r="B87" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C87" s="4"/>
+      <c r="C87" s="4" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C88" s="4"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="8" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4334,18 +4481,18 @@
       <c r="B92" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C93" s="4" t="s">
         <v>346</v>
       </c>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
@@ -4354,119 +4501,119 @@
       <c r="B94" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C94" s="4"/>
+      <c r="C94" s="4" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C95" s="4"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C100" s="4" t="s">
         <v>361</v>
       </c>
+      <c r="C100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
         <v>362</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C101" s="4"/>
+        <v>363</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C103" s="4"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C104" s="4"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C106" s="4" t="s">
         <v>371</v>
       </c>
+      <c r="C106" s="4"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
@@ -4495,38 +4642,38 @@
         <v>378</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C109" s="4"/>
+        <v>379</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>383</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
@@ -4566,38 +4713,38 @@
         <v>393</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C116" s="4"/>
+        <v>394</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="C118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C119" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="C119" s="4"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
@@ -4606,36 +4753,36 @@
       <c r="B120" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C120" s="4"/>
+      <c r="C120" s="4" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C121" s="4"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C122" s="4"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C123" s="4" t="s">
         <v>408</v>
       </c>
+      <c r="C123" s="4"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
@@ -4677,101 +4824,103 @@
       <c r="B127" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C127" s="4"/>
+      <c r="C127" s="4" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C128" s="4"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C129" s="4"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C130" s="4"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>440</v>
@@ -4780,808 +4929,806 @@
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C139" s="4"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C143" s="4"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C145" s="4"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C152" s="4"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="C158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>482</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="C159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>483</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C160" s="4"/>
+        <v>484</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>485</v>
+        <v>209</v>
       </c>
       <c r="C161" s="4"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>196</v>
+        <v>498</v>
       </c>
       <c r="C167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>498</v>
+        <v>196</v>
       </c>
       <c r="C168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C174" s="4"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C175" s="4"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C176" s="4"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C178" s="4"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C179" s="4"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C180" s="4"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C181" s="4"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C183" s="4"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C184" s="4"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C185" s="4"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C186" s="4"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C188" s="4"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C189" s="4"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C190" s="4"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C191" s="4"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C192" s="4"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C193" s="4"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C198" s="4"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C199" s="4"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C200" s="4"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C204" s="4"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C210" s="4"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C211" s="4"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C212" s="4"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C213" s="4"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C214" s="4"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C215" s="4"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C216" s="4"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C217" s="4"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C219" s="4"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C223" s="4"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C224" s="4"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C225" s="4"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="C227" s="4" t="s">
         <v>617</v>
       </c>
+      <c r="C227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
@@ -5601,27 +5748,27 @@
       <c r="B229" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C229" s="4"/>
+      <c r="C229" s="4" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C230" s="4"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="C231" s="4" t="s">
         <v>627</v>
       </c>
+      <c r="C231" s="4"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
@@ -5630,36 +5777,36 @@
       <c r="B232" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C232" s="4"/>
+      <c r="C232" s="4" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="C235" s="4" t="s">
         <v>636</v>
       </c>
+      <c r="C235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
@@ -5668,173 +5815,173 @@
       <c r="B236" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C236" s="4"/>
+      <c r="C236" s="4" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C238" s="4"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C239" s="4"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C240" s="4"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C241" s="4"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C243" s="4"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>654</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="C244" s="4"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="C245" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C246" s="4"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C247" s="4"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C248" s="4"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C250" s="4"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C252" s="4"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>476</v>
+        <v>673</v>
       </c>
       <c r="C253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>674</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C254" s="4"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
@@ -5843,36 +5990,36 @@
       <c r="B255" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="C255" s="4"/>
+      <c r="C255" s="4" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C256" s="4"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C257" s="4"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="C258" s="4" t="s">
         <v>683</v>
       </c>
+      <c r="C258" s="4"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
@@ -5881,162 +6028,162 @@
       <c r="B259" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="C259" s="4"/>
+      <c r="C259" s="4" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C260" s="4"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C261" s="4"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C262" s="4"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C263" s="4"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C264" s="4"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C265" s="4"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>209</v>
+        <v>700</v>
       </c>
       <c r="C266" s="4"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>487</v>
+        <v>209</v>
       </c>
       <c r="C267" s="4"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>701</v>
+        <v>490</v>
       </c>
       <c r="C268" s="4"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>493</v>
+        <v>704</v>
       </c>
       <c r="C269" s="4"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>198</v>
+        <v>496</v>
       </c>
       <c r="C270" s="4"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>498</v>
+        <v>198</v>
       </c>
       <c r="C271" s="4"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>212</v>
+        <v>501</v>
       </c>
       <c r="C272" s="4"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C273" s="4"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>708</v>
+        <v>207</v>
       </c>
       <c r="C274" s="4"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C275" s="4"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="C276" s="4" t="s">
         <v>713</v>
       </c>
+      <c r="C276" s="4"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
@@ -6045,189 +6192,189 @@
       <c r="B277" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="C277" s="4"/>
+      <c r="C277" s="4" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>687</v>
+        <v>718</v>
       </c>
       <c r="C278" s="4"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C279" s="4"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>719</v>
+        <v>692</v>
       </c>
       <c r="C280" s="4"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C281" s="4"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C282" s="4"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C283" s="4"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C284" s="4"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C285" s="4"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C286" s="4"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C287" s="4"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C288" s="4"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C289" s="4"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C290" s="4"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C291" s="4"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>485</v>
+        <v>744</v>
       </c>
       <c r="C292" s="4"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C293" s="4"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>701</v>
+        <v>490</v>
       </c>
       <c r="C294" s="4"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>491</v>
+        <v>704</v>
       </c>
       <c r="C295" s="4"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>747</v>
+        <v>494</v>
       </c>
       <c r="C296" s="4"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="C297" s="4" t="s">
         <v>750</v>
       </c>
+      <c r="C297" s="4"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
@@ -6236,135 +6383,135 @@
       <c r="B298" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C298" s="4"/>
+      <c r="C298" s="4" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C299" s="4"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C300" s="4"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C301" s="4"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C302" s="4"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C303" s="4"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C304" s="4"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C305" s="4"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C306" s="4"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C307" s="4"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C308" s="4"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C309" s="4"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C310" s="4"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C311" s="4"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="C312" s="4" t="s">
         <v>781</v>
       </c>
+      <c r="C312" s="4"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
@@ -6373,44 +6520,66 @@
       <c r="B313" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="C313" s="4"/>
+      <c r="C313" s="4" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C314" s="4"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C315" s="4"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C316" s="4"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="C317" s="4" t="s">
         <v>792</v>
+      </c>
+      <c r="C317" s="4"/>
+    </row>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6429,12 +6598,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C314"/>
+  <dimension ref="A1:C318"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="1" sqref="C13 A41"/>
+      <selection pane="bottomLeft" activeCell="C95" activeCellId="1" sqref="C5 C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6552,10 +6721,10 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -6721,16 +6890,16 @@
         <v>204</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C30" s="4"/>
     </row>
@@ -7281,329 +7450,335 @@
       <c r="B89" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C89" s="4"/>
+      <c r="C89" s="4" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>338</v>
-      </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C94" s="4"/>
+    <row r="94" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>361</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>798</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>374</v>
+        <v>805</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C105" s="4"/>
+        <v>391</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>408</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C111" s="4"/>
+        <v>416</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="C113" s="4"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>425</v>
       </c>
       <c r="C114" s="4"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="C115" s="4"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="C116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="C117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="C118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>435</v>
       </c>
       <c r="C119" s="4"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="C120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="C121" s="4"/>
     </row>
@@ -7621,169 +7796,169 @@
         <v>441</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C123" s="4"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>444</v>
       </c>
       <c r="C124" s="4"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="C125" s="4"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="C126" s="4"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="C127" s="4"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="C128" s="4"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C129" s="4"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="C130" s="4"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="C131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>464</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>467</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>468</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C138" s="4"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="C139" s="4"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="C140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="C141" s="4"/>
     </row>
@@ -7794,79 +7969,79 @@
       <c r="B142" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>482</v>
-      </c>
+      <c r="C142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>209</v>
+        <v>440</v>
       </c>
       <c r="C143" s="4"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="C144" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>486</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>487</v>
+        <v>209</v>
       </c>
       <c r="C145" s="4"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="C146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>491</v>
       </c>
       <c r="C147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>493</v>
       </c>
       <c r="C148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="C149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="C150" s="4"/>
     </row>
@@ -7884,553 +8059,551 @@
         <v>499</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>500</v>
+        <v>196</v>
       </c>
       <c r="C152" s="4"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="C153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>504</v>
       </c>
       <c r="C154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="C155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="C156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="C157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>512</v>
       </c>
       <c r="C158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="C159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="C160" s="4"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>518</v>
       </c>
       <c r="C161" s="4"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>520</v>
       </c>
       <c r="C162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="C163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>524</v>
       </c>
       <c r="C164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="C165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="C166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="C167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>532</v>
       </c>
       <c r="C168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="C169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>536</v>
       </c>
       <c r="C170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>538</v>
       </c>
       <c r="C171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>540</v>
       </c>
       <c r="C172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="C173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="C174" s="4"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="C175" s="4"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>548</v>
       </c>
       <c r="C176" s="4"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="C177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="C178" s="4"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>553</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>554</v>
       </c>
       <c r="C179" s="4"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>555</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>556</v>
       </c>
       <c r="C180" s="4"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="C181" s="4"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>560</v>
       </c>
       <c r="C182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="C183" s="4"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>563</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>564</v>
       </c>
       <c r="C184" s="4"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="C185" s="4"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>568</v>
       </c>
       <c r="C186" s="4"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>570</v>
       </c>
       <c r="C187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>572</v>
       </c>
       <c r="C188" s="4"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>574</v>
       </c>
       <c r="C189" s="4"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>576</v>
       </c>
       <c r="C190" s="4"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="C191" s="4"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="C192" s="4"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>582</v>
       </c>
       <c r="C193" s="4"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>584</v>
       </c>
       <c r="C194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>586</v>
       </c>
       <c r="C195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>590</v>
       </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>592</v>
       </c>
       <c r="C198" s="4"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="C199" s="4"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>595</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>596</v>
       </c>
       <c r="C200" s="4"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>598</v>
       </c>
       <c r="C201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>604</v>
       </c>
       <c r="C204" s="4"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>606</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>610</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>611</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>612</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>613</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>614</v>
       </c>
       <c r="C209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>617</v>
-      </c>
+      <c r="C210" s="4"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>620</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C211" s="4"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
-        <v>799</v>
+        <v>618</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="C212" s="4"/>
+        <v>619</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
@@ -8439,465 +8612,467 @@
       <c r="B213" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C213" s="4"/>
+      <c r="C213" s="4" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>623</v>
+        <v>806</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>624</v>
+        <v>807</v>
       </c>
       <c r="C214" s="4"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>627</v>
-      </c>
+      <c r="C215" s="4"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C216" s="4"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="B217" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="C217" s="4"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>633</v>
       </c>
       <c r="C218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B219" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="B219" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>636</v>
-      </c>
+      <c r="C219" s="4"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C221" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="B221" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="C221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B222" s="6" t="s">
         <v>641</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>642</v>
       </c>
       <c r="C222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>644</v>
+        <v>808</v>
       </c>
       <c r="C223" s="4"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>645</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>646</v>
       </c>
       <c r="C224" s="4"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>647</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>648</v>
       </c>
       <c r="C225" s="4"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>650</v>
       </c>
       <c r="C226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>652</v>
       </c>
       <c r="C227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B228" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="B228" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>654</v>
-      </c>
+      <c r="C228" s="4"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>656</v>
       </c>
       <c r="C229" s="4"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="C230" s="4"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>660</v>
       </c>
       <c r="C231" s="4"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B232" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>662</v>
       </c>
       <c r="C232" s="4"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>664</v>
       </c>
       <c r="C233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>665</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>666</v>
       </c>
       <c r="C234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>668</v>
       </c>
       <c r="C235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B236" s="6" t="s">
         <v>669</v>
-      </c>
-      <c r="B236" s="6" t="s">
-        <v>670</v>
       </c>
       <c r="C236" s="4"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>671</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="C237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>802</v>
+        <v>672</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>803</v>
+        <v>673</v>
       </c>
       <c r="C238" s="4"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>804</v>
+        <v>674</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>805</v>
+        <v>479</v>
       </c>
       <c r="C239" s="4"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C240" s="4"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C241" s="4"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C243" s="4"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C244" s="4"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C245" s="4"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C246" s="4"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>672</v>
+        <v>823</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C247" s="4"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>674</v>
-      </c>
+        <v>826</v>
+      </c>
+      <c r="C248" s="4"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>822</v>
+        <v>675</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>676</v>
+        <v>827</v>
       </c>
       <c r="C249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="C250" s="4"/>
+        <v>676</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="B252" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="C252" s="4"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>684</v>
+        <v>831</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C254" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="B254" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="C254" s="4"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B255" s="6" t="s">
         <v>688</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>689</v>
       </c>
       <c r="C255" s="4"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>690</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>691</v>
       </c>
       <c r="C256" s="4"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>692</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>693</v>
       </c>
       <c r="C257" s="4"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>695</v>
       </c>
       <c r="C258" s="4"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>697</v>
       </c>
       <c r="C259" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>825</v>
+        <v>697</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>797</v>
+        <v>698</v>
       </c>
       <c r="C260" s="4"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>209</v>
+        <v>700</v>
       </c>
       <c r="C261" s="4"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>699</v>
+        <v>832</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>487</v>
+        <v>801</v>
       </c>
       <c r="C262" s="4"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>701</v>
+        <v>209</v>
       </c>
       <c r="C263" s="4"/>
     </row>
@@ -8906,7 +9081,7 @@
         <v>702</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C264" s="4"/>
     </row>
@@ -8915,43 +9090,43 @@
         <v>703</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>198</v>
+        <v>704</v>
       </c>
       <c r="C265" s="4"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C266" s="4"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C267" s="4"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>207</v>
+        <v>501</v>
       </c>
       <c r="C268" s="4"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>708</v>
+        <v>212</v>
       </c>
       <c r="C269" s="4"/>
     </row>
@@ -8960,54 +9135,54 @@
         <v>709</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>710</v>
+        <v>207</v>
       </c>
       <c r="C270" s="4"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="B271" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="B271" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>713</v>
-      </c>
+      <c r="C271" s="4"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C272" s="4"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="C273" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="B273" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="C273" s="4"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
         <v>717</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>689</v>
+        <v>718</v>
       </c>
       <c r="C274" s="4"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>719</v>
+        <v>690</v>
       </c>
       <c r="C275" s="4"/>
     </row>
@@ -9016,106 +9191,106 @@
         <v>720</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>721</v>
+        <v>692</v>
       </c>
       <c r="C276" s="4"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>722</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>723</v>
       </c>
       <c r="C277" s="4"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="B278" s="6" t="s">
         <v>724</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>725</v>
       </c>
       <c r="C278" s="4"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="B279" s="6" t="s">
         <v>726</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>727</v>
       </c>
       <c r="C279" s="4"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B280" s="6" t="s">
         <v>728</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>729</v>
       </c>
       <c r="C280" s="4"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="B281" s="6" t="s">
         <v>730</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>731</v>
       </c>
       <c r="C281" s="4"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="B282" s="6" t="s">
         <v>732</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>733</v>
       </c>
       <c r="C282" s="4"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="B283" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>735</v>
       </c>
       <c r="C283" s="4"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="B284" s="6" t="s">
         <v>736</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>737</v>
       </c>
       <c r="C284" s="4"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>738</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>739</v>
       </c>
       <c r="C285" s="4"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>740</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>741</v>
       </c>
       <c r="C286" s="4"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>742</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>485</v>
       </c>
       <c r="C287" s="4"/>
     </row>
@@ -9124,247 +9299,287 @@
         <v>743</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>487</v>
+        <v>744</v>
       </c>
       <c r="C288" s="4"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>701</v>
+        <v>488</v>
       </c>
       <c r="C289" s="4"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C290" s="4"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>826</v>
+        <v>747</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>498</v>
+        <v>704</v>
       </c>
       <c r="C291" s="4"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>747</v>
+        <v>494</v>
       </c>
       <c r="C292" s="4"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>748</v>
+        <v>833</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>750</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="C293" s="4"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C294" s="4"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C295" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="B295" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="C295" s="4"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>755</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>756</v>
       </c>
       <c r="C296" s="4"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="B297" s="6" t="s">
         <v>757</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>758</v>
       </c>
       <c r="C297" s="4"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B298" s="6" t="s">
         <v>759</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>760</v>
       </c>
       <c r="C298" s="4"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="B299" s="6" t="s">
         <v>761</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>827</v>
       </c>
       <c r="C299" s="4"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="B300" s="6" t="s">
         <v>763</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>764</v>
       </c>
       <c r="C300" s="4"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>828</v>
+        <v>764</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C301" s="4"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C302" s="4"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>767</v>
+        <v>835</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>768</v>
+        <v>836</v>
       </c>
       <c r="C303" s="4"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B304" s="6" t="s">
         <v>769</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>770</v>
       </c>
       <c r="C304" s="4"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B305" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="C305" s="4"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B306" s="6" t="s">
         <v>773</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>774</v>
       </c>
       <c r="C306" s="4"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B307" s="6" t="s">
         <v>775</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>776</v>
       </c>
       <c r="C307" s="4"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="B308" s="6" t="s">
         <v>777</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>778</v>
       </c>
       <c r="C308" s="4"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B309" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="B309" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>781</v>
-      </c>
+      <c r="C309" s="4"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C310" s="4"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="C311" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="B311" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="C311" s="4"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="B312" s="6" t="s">
         <v>786</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>787</v>
       </c>
       <c r="C312" s="4"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="B313" s="6" t="s">
         <v>788</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>789</v>
       </c>
       <c r="C313" s="4"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="B314" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="B314" s="6" t="s">
+      <c r="C314" s="4"/>
+    </row>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="C314" s="4"/>
+      <c r="B315" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="C315" s="4"/>
+    </row>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C316" s="4"/>
+    </row>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="C318" s="10" t="s">
+        <v>804</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9385,9 +9600,9 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="118.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9400,222 +9615,230 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>840</v>
+      <c r="C4" s="12" t="s">
+        <v>849</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>840</v>
+      <c r="C5" s="12" t="s">
+        <v>849</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>702</v>
+      </c>
       <c r="B8" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>846</v>
+      <c r="C8" s="12" t="s">
+        <v>855</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>487</v>
+        <v>856</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>702</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>846</v>
+      <c r="C9" s="12" t="s">
+        <v>858</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>487</v>
+        <v>856</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>469</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>848</v>
+      <c r="C10" s="12" t="s">
+        <v>859</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>860</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>469</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>848</v>
+      <c r="C11" s="12" t="s">
+        <v>859</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>860</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="0" t="n">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>850</v>
-      </c>
+      <c r="C12" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>851</v>
+        <v>863</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>850</v>
-      </c>
+      <c r="C13" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>851</v>
+        <v>863</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>864</v>
       </c>
     </row>
   </sheetData>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="822">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -360,10 +360,22 @@
     <t xml:space="preserve">Bevételek szakasz címsora.</t>
   </si>
   <si>
+    <t xml:space="preserve">vis.incomeText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bevétel ábra alatti szöveg (opcionális).</t>
+  </si>
+  <si>
     <t xml:space="preserve">vis.expense</t>
   </si>
   <si>
     <t xml:space="preserve">Kiadások szakasz címsora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vis.expenseText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiadás ábra alatti szöveg (opcionális).</t>
   </si>
   <si>
     <t xml:space="preserve">vis.econ</t>
@@ -2692,15 +2704,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.88"/>
@@ -3162,9 +3174,7 @@
       <c r="A42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
         <v>112</v>
       </c>
@@ -3174,102 +3184,120 @@
         <v>113</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="3" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C52" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3294,7 +3322,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.84"/>
@@ -3303,13 +3331,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,2607 +3345,2607 @@
         <v>-1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C219" s="3"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5946,7 +5974,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.84"/>
@@ -5955,13 +5983,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5969,2607 +5997,2607 @@
         <v>-1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C219" s="3"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8598,7 +8626,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.48"/>
@@ -8608,40 +8636,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>2018</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8650,14 +8678,14 @@
         <v>2018</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8666,14 +8694,14 @@
         <v>2018</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8682,14 +8710,14 @@
         <v>2018</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8698,14 +8726,14 @@
         <v>2018</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8714,16 +8742,16 @@
         <v>2018</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>812</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8732,14 +8760,14 @@
         <v>2019</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8748,14 +8776,14 @@
         <v>2019</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8764,14 +8792,14 @@
         <v>2019</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8780,14 +8808,14 @@
         <v>2019</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="870">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2638,7 +2638,7 @@
 A MÁTRA MŰVELŐDÉSI KÖZPONT (MMK) energetikai korszerűsítése és a „Kulcs Projekt” című pályázatok egymásra építve, együttesen teszik lehetővé az intézmény teljeskörű modernizálását. Az energetikai korszerűsítés keretében megvalósult az épület falainak és tetejének hőszigetelése, a külső nyílászárók cseréje, valamint az épület színháztermének szellőzési lehetősége és klimatizálása is. A színházterem fölötti lapostetőn napelemeket helyeztek el. A fejlesztésnek köszönhetően az MMK a környezeti terhelés csökkentésével, innovatív megoldások beépítésével modern közösségi térként fogadja látogatóit. A ‘KULCS PROJEKT’ keretében az épület belső közösségi funkciójának, infrastruktúrájának és eszközállományának megújítása a cél. Felújításra kerül az elektromos hálózat, emellett a mai elvárásoknak megfelelő tűz-, és érintésvédelmi fejlesztések történnek. A fejlesztések révén az épület funkciói bővülnek, így hatékonyabban tudja majd kiszolgálni a helyi közösség igényeit.</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeruzsálem úti óvoda.jpg</t>
+    <t xml:space="preserve">assets/img/jeruzsalem-uti-ovoda.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">A Jeruzsálem úti bölcsőde és óvoda fejlesztése</t>
@@ -2647,9 +2647,6 @@
     <t xml:space="preserve">Kódszám: TOP-1.4.1-16-HE1-2017-00021
 Támogatási összeg: 249 999 080 Ft.
 A fejlesztési koncepció az volt, hogy a bölcsődei új férőhelyek létrehozásán túlmenően az óvoda és bölcsőde meglévő épületegyüttese energetikailag is megfeleljen a mai kor igényeinek. A projekt lezárultával a gondozási egységek száma egyről kettőre, a gyerekszobák száma kettőről négyre emelkedik, ennek köszönhetően a fogadható gyermekek létszáma 26 főről 50 főre nőhet. A megvalósítás során megtörténik az intézmény energetikai célú felújítása, szigeteléssel, nyílászáró cserével, továbbá a bölcsőde részére új épületrész épül.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assets/img/jeruzsalem-uti-ovoda.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">assets/img/korona.jpg</t>
@@ -3019,13 +3016,13 @@
   </sheetPr>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="C8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.85"/>
@@ -3639,10 +3636,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C319" activeCellId="0" sqref="C319"/>
+      <selection pane="bottomLeft" activeCell="C319" activeCellId="1" sqref="C8 C319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.86"/>
@@ -6643,10 +6640,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C95" activeCellId="0" sqref="C95"/>
+      <selection pane="bottomLeft" activeCell="C95" activeCellId="1" sqref="C8 C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.86"/>
@@ -9639,13 +9636,13 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="118.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="118.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.43"/>
@@ -9807,7 +9804,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
@@ -9823,14 +9820,14 @@
         <v>2020</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9839,14 +9836,14 @@
         <v>13</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9855,14 +9852,14 @@
         <v>2020</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>869</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9871,14 +9868,14 @@
         <v>13</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>869</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>870</v>
       </c>
     </row>
   </sheetData>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="881">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">url</t>
   </si>
   <si>
-    <t xml:space="preserve">http://gyongyos.deepdata.hu/</t>
+    <t xml:space="preserve">http://gyongyos.koko.deepdata.hu/</t>
   </si>
   <si>
     <t xml:space="preserve">A weboldal leendő URL-je. Keresőoptimalizálásnál és megosztásnál van szerepe.</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">seo.ogImage</t>
   </si>
   <si>
-    <t xml:space="preserve">varoshaza</t>
+    <t xml:space="preserve">http://gyongyos.koko.deepdata.hu/assets/img/varoshaza.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Facebook/Twitter megosztáskor az előnézeti kártyában megjelenő kép URL-je.</t>
@@ -252,7 +252,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ezen az oldalon megtekintheti Gyöngyös költségvetését és fejlesztéseit átlátható módon, interaktív ábrák segítségével. </t>
+      <t xml:space="preserve">Tekintse meg Gyöngyös költségvetését és fejlesztéseit átlátható módon, interaktív ábrák segítségével! </t>
     </r>
     <r>
       <rPr>
@@ -262,7 +262,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">A 2021-es költségvetés elfogadása februárban várható, ezt követően frissítjük az oldalt!</t>
+      <t xml:space="preserve">A 2021-es költségvetés elfogadása februárban várható, ezt követően frissítjük az oldalt.</t>
     </r>
   </si>
   <si>
@@ -370,8 +370,9 @@
     <t xml:space="preserve">inex.text</t>
   </si>
   <si>
-    <t xml:space="preserve">**Segítünk értelmezni!** Az oldalon Gyöngyös Város Önkormányzatának és intézményeinek 2020-as költségvetése látható. A Mérlegben részletezett rendeleti főösszeg számviteli okokból duplikálva tartalmazza az intézmények finanszírozását és feltünteti az éven belül folyószámlahitel-tranzakciókat (**szürke**). Ezek nélkül, a korábban elnyert uniós támogatások 2020-ra jutó tételeivel Gyöngyös költségvetési kiadásai meghaladják a 11,5 milliárd Ft-ot. Ebből látta el a város szerteágazó működési feladatait és valósított meg fejlesztéseket. A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A **működési költségvetés (kék)** a napi szintű, zavartalan feladatellátást biztosítja, míg a **felhalmozási költségvetés (lila)**  beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (főként helyi adók, illetve állami normatívák, nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások stb.) rendszeresen, ciklikusan jelentkeznek, míg a  felhalmozási tételek (pl. uniós és állami pályázatok) eseti jellegűek.
-A működési költségvetés egyenlege törvényi előírás alapján nem lehet negatív, hiszen ekkor az önkormányzat gazdálkodása nem volna fenntartható külső segítség nélkül. A működés többlete mellett az önkormányzat hosszú távú, színvonalas feladatellátásához szükséges fejlesztésekre fordíthatók a kifejezetten fejlesztésre kapott, illetve a **finanszírozási bevételek (zöld)**. Utóbbi csekély részt fejlesztésekre felvett hiteleket jelent, amit jövőbeni működési többletéből tud a város visszafizetni. Gyöngyös finanszírozási bevételeinek nagyja az előző évi gazdálkodás maradványa: a folyamatban lévő uniós fejlesztések még fel nem használt támogatásai, illetve a megelőző évről maradt szabad maradvány. Mindezek egyelőre tervszámok, a ténylegesen teljesült összegeket a 2021-ben elfogadandó zárszámadás tartalmazza. Ennek birtokában az oldalon a költségvetés kormányzati funkciók (oktatás, egészségügy stb.) szerinti bontását is elérhetővé tesszük.</t>
+    <t xml:space="preserve">**Segítünk értelmezni!** Az oldalon Gyöngyös Önkormányzatának és intézményeinek 2020-as költségvetése látható. A mérleg a költségvetési rendeletben szereplő főösszeget mutatja be. Ahhoz, hogy megértsük, miből gazdálkodik ténylegesen a város, érdemes elkülöníteni a saját intézmények finanszírozását (**irányítószervi támogatás**), ami számviteli okból duplán szerepel a főösszegben, illetve az éven belüli **folyószámlahitel-ügyleteket**. Ezek nélkül Gyöngyös költségvetési kiadásai meghaladták a 11,5 milliárd Ft-ot. Ebből látta el a város szerteágazó feladatait.
+A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A **működési költségvetés** a zavartalan feladatellátást biztosítja, míg a **felhalmozási költségvetés** beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (törvényben meghatározott állami normatívák, helyi adók, a nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások) rendszeresen, ciklikusan jelentkeznek. Ezzel szemben a felhalmozási tételek eseti jellegűek, gyakran több éves költségvetési hatással (pl. uniós és állami pályázatok).
+A működési költségvetés többlete mellett az önkormányzat fenntartható, színvonalas feladatellátásához szükséges fejlesztésekre fordíthatók a kifejezetten felhalmozásra kapott bevételek és a **finanszírozási költségvetés** többlete. Utóbbi csekély részt fejlesztési hiteleket jelent, amit a város jövőbeni működési többletéből tud visszafizetni. Gyöngyös finanszírozási bevételeinek nagyja az előző évi gazdálkodás maradványa: a folyamatban lévő uniós fejlesztések még fel nem használt támogatásai, illetve a megelőző évről maradt szabad maradvány. Mindezek egyelőre tervszámok, a ténylegesen teljesült összegeket a 2021-ben elfogadandó zárszámadás tartalmazza. Ennek birtokában az oldalon a költségvetés kormányzati funkciók szerinti bontását is elérhetővé tesszük.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérleg szakasz ábra alatti szövege. Markdown jelölések használhatóak (pl. formázás, linkek).</t>
@@ -419,7 +420,7 @@
     <t xml:space="preserve">vis.econHint</t>
   </si>
   <si>
-    <t xml:space="preserve">Működési vagy felhalmozási jellegük alapján csoportosítja a kiadásokat: mekkora a személyi kiadások, járulékok, dologi kiadások, beruházási és felújítási kiadások, államháztartáson belüli és kívüli támogatások, transzferek összege a költségvetésben.</t>
+    <t xml:space="preserve">Működési vagy felhalmozási jellegük alapján csoportosítja a kiadásokat. Bemutatja, mekkora a személyi kiadások és dologi kiadások, beruházási és felújítási kiadások, államháztartáson belüli és kívüli támogatások, transzferek összege a költségvetésben.</t>
   </si>
   <si>
     <t xml:space="preserve">Közgazdasági nézetre váltó gomb magyarázata (tooltip).</t>
@@ -437,7 +438,7 @@
     <t xml:space="preserve">vis.funcHint</t>
   </si>
   <si>
-    <t xml:space="preserve">A költségvetési kiadásokat azok társadalmi-gazdasági célja szerinti csoportosítja, függetlenül azok működési-felhalmozási jellegétől vagy költségtípusától. A költségvetést összesen 10 kormányzati funkcióra és annak alkategóriáira bontja. Ez a nézet a zárszámadási rendelet elfogadását követően lesz elérhető.  </t>
+    <t xml:space="preserve">A kiadásokat azok társadalmi-gazdasági célja szerinti csoportosítja, függetlenül azok működési-felhalmozási jellegétől vagy költségtípusától. A költségvetést 10 kormányzati funkcióra és annak alkategóriáira bontja. Ez a nézet a zárszámadási rendelet elfogadását követően lesz elérhető.  </t>
   </si>
   <si>
     <t xml:space="preserve">Funkcionális nézetre váltó gomb magyarázata (tooltip).</t>
@@ -497,1971 +498,1995 @@
     <t xml:space="preserve">B1</t>
   </si>
   <si>
-    <t xml:space="preserve">Működési célú támogatások államháztartáson belülről</t>
+    <t xml:space="preserve">🔒 Működési támogatások államháztartáson belülről</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Döntően a központi költségvetésből kapott, ott meghatározott mértékű, normatív alapon járó feladatfinanszírozási és kiegészítő támogatások. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Önkormányzatok működési támogatásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Döntően a központi költségvetésből a napi működés kötelező feladataira kapott, kötött felhasználású támogatások tartoznak ide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helyi önkormányzatok működésének általános támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A központi költségvetésből az önkormányzatok részére pl. a hivatal működtetésére, településüzemeltetésre (zöldterület-gazdálkodás, közvilágítás, köztemetők) juttatott feladatalapú támogatás. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Települési önkormányzatok egyes köznevelési feladatainak támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A központi költségvetésből az önkormányzatok egyes köznevelési feladatainak (pl. óvodaműködtetés) támogatására biztosított feladatalapú és kiegészítő támogatások.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Települési önkormányzatok szociális gyermekjóléti és gyermekétkeztetési feladatainak támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A központi költségvetésből az önkormányzatok szociális, gyermekjóléti és gyermekétkeztetési feladatainak (ide értve a bölcsődéket) támogatására biztosított feladatalapú és kiegészítő támogatások.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Települési önkormányzatok egyes szociális és gyermekjóléti feladatainak támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Települési önkormányzatok gyermekétkeztetési feladatainak támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Települési önkormányzatok kulturális feladatainak támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A központi költségvetésből az önkormányzatok könyvtári, közművelődési és múzeumi feladatainak támogatására biztosított feladatalapú és kiegészítő támogatások.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Működési célú költségvetési támogatások és kiegészítő támogatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A központi költségvetésből az önkormányzatok részére adott rendkívüli támogatások, kamattámogatások és egyéb működési célú támogatások bevételei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb működési célú támogatások bevételei államháztartáson belülről</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az önkormányzat által visszafizetési kötelezettség nélkül, véglegesen kapott egyéb működési támogatások összege, illetve a más szervezetek számára így nyújtott támogatások visszafizetése.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb működési célú támogatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B160101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEAK-támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B160102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közfoglalkoztatás támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B160103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mezőőri szolgálat működés támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B160104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fejlesztő foglalkoztatás támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B160105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Társulási koordinátor és pü.ügyintéző személyi juttatás megtérítése (Többcélú Társulás)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B160106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Társulási koordinátor és pü.ügyintéző személyi juttatás megtérítése (Ny-Hevesi Reg. Hull.gazd. Önk. Társulás)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B160107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szociális ágazati összevont pótlék</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B160108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulturális illetménypótlék</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B160109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyári napközis tábor, nyári diákmunka, autómentes nap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B160110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utcai szociális munka támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektek működési célú támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B160201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulturális és közösségi terek infrastrukturális fejlesztése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B160202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Célzott prevenciós programok a szenvedélybetegségek megelőzése érdekében</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B160203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szennyvízelvezetés fejlesztése projektből lehívható ÁFA támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felhalmozási támogatások államháztartáson belülről</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A központi költségvetésből felhalmozási célra (pl. beruházásokra) kapott támogatások.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szennyvízelvezetésének és tisztításának fejlesztése önerő</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingyenes WIFI pontok kialakítása (WIFI4EU pályázat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Új ipari terület kialakítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az erdei ökoszisztémák térítésmentes közjóléti funkcióinak fejlesztése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közhatalmi bevételek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lakosok és a helyi vállalatok által befizetett helyi adók, díjak, bírságok. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vagyoni tipusú adók</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Építményadóból, magánszemélyek kommunális adójából származó bevételek.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Építményadó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magánszemélyek kommunális adója</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Termékek és szolgáltatások adói</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helyi iparűzési adóból, gépjárműadóból, idegenforgalmi adóból származó bevételek.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helyi iparűzési adó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gépjárműadók</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idegenforgalmi adó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb közhatalmi bevételek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talajterhelési díjból, adópótlékból-adóbírságból, közösségellenes bírságból származó bevételek.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talajterhelési díj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adópótlék, adóbírság</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közösségellenes bírság</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Működési bevételek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Döntően a nyújtott szolgáltatásokból származó bevétel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szolgáltatások ellenértéke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közvetített szolgáltatások ellenértéke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulajdonosi bevételek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellátási díjak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiszámlázott általános forgalmi adó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Általános forgalmi adó visszatérítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamatbevételek és más nyereségjellegű bevételek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Befektetett pénzügyi eszközökből származó bevételek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb kapott (járó) kamatok és kamatjellegű bevételek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb működési bevételek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felhalmozási bevételek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingatlanok és tárgyi eszközök értékesítéséből származó bevétel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingatlanok értékesítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb tárgyi eszközök értékesítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Működési célú átvett pénzeszközök</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helyi cégeknek adott (tagi) kölcsön megtérülése, átmeneti finanszírozások visszafizetéséből, túlfizetésből származó bevétel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagi kölcsön megtérülése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Új Nap Egyesület átmeneti finanszírozás visszafizetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyöngyösi Kulturális NKft. átmeneti finanszírozás visszafizetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyöngyösi Úszó Alapítvány átmeneti finanszírozás visszafizetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyöngyösi Amatőr Színjátszásért Khe. átmeneti finanszírozás visszafizetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meseházikó Alapítvány átmeneti finanszírozás visszafizetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hozzájárulás mezőőri szolgálathoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közérdekű felajánlások koronavírus elleni védekezéshez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volánbusz támogatás túlfizetés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYAK női szakosztály működtetésére adott kölcsön visszafizetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felhalmozási célú átvett pénzeszközök</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felhalmozási célra adott támogatások, kölcsönök visszatérülése, államháztartáson kívüli szervezetektől és személyektől ellenérték nélkül, felhalmozási céllal kapott bevételek.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felhalmozási célú visszatérítendő támogatások, kölcsönök visszatérülése államháztartáson kívülről</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakáshoz jutók helyi támogatás megtérülése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolgozók lakásép. támogatás megtérülése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyöngyösi Kézilabda Klub finanszírozás visszafizetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mátrai Hegyközségek Nonprofit Kft. finanszírozás visszafizetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb felhalmozási célú átvett pénzeszközök</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gáz-, Zsellérköz csatorna csatlakozási díj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMSZSZ hozzájárulása Károly Róbert Középiskola felújításához</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finanszírozási bevételek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitel-, kölcsönfelvétel, értékpapírok bevételei, előző évi maradványok igénybevétele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belföldi finanszírozás bevételei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitel-, kölcsönfelvétel pénzügyi vállalkozástól</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B8111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosszú lejáratú hitelek, kölcsönök felvétele pénzügyi vállalkozástól</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belföldi értékpapírok bevételei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B8123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Befektetési célú belföldi értékpapírok beváltása, értékesítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maradvány igénybevétele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B8131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Előző év költségvetési maradványának igénybevétele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A korábbi évek gazdálkodásának szabadon felhasználható eredménye, illetve a folyamatban lévő fejlesztési projektek még fel nem használt támogatásai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Államháztartáson belüli megelőlegezések</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fejlesztési hitel, értékpapírok eladása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az ebből származó bevétel fejlesztéseket finanszíroz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Áthúzódó projektek, szabad maradvány, elszámolások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">❌ Irányítószervi támogatás </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az irányítószervi támogatások - az önkormányzat intézményeiknek adott támogatások - számviteli okból duplán szerepelnek a költségvetés főösszegében. A valóságban ezek természetesen csak egyszer kerülnek elköltésre, így a bevételi és kiadási ábrákon már csak végső rendeltetésük szerint szerepeltetjük őket. Ez magyarázza, hogy ott a költségvetés főösszegénél ennyivel kisebb összeg kerül bemutatásra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Személyi juttatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illetmények, munkabérek, más juttatások (pl. képviselői tiszteletdíj), megbízási díj, reprezentációs kiadás, költségtérítés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foglalkoztatottak személyi juttatásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Törvény szerinti illetmények, munkabérek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az önkormányzat által foglalkoztatott köztisztviselők, kormánytisztviselők, ügykezelők, közalkalmazottak stb. illetménye, pótlékai, díjai és bérei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K110101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Köztisztviselők, kormánytisztviselők</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K110102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közalkalmazottak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K110103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb bérrendszer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K11010301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felsőfokú végzettségű (nem vezető)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K11010302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fizikai alkalmazott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K11010303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közfoglalkoztatott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normatív jutalmak, céljuttatás, projektprémium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Előre meghatározott követelményekhez kapcsolódó jutalmak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K110201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K110202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Készenléti, ügyeleti, helyettesítési díj, túlóra, túlszolgálat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K110401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K110402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb bérrendszer (fizikai alkalmazottak)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Végkielégítés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A foglalkoztatottaknak megállapított végkielégítés összege.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jubileumi jutalom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jubileumi és hűségjutalmak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Béren kívüli juttatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt kell elszámolni a foglalkoztatottak részére juttatott, a személyi jövedelemadóról szóló törvény szerinti béren kívüli juttatásokat és egyes meghatározott juttatásokat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K110701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K110702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K110703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közlekedési költségtérítés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt kell elszámolni a munkába járással kapcsolatos személygépkocsi használat után fizetendő költségtérítést, továbbá a foglalkoztatottaknak megállapított más utazási költségtérítéseket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb költségtérítések</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Máshol nem elszámolható költségtérítések.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szociális támogatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt kell elszámolni a foglalkoztatottaknak szociális alapon megállapított eseti szociális támogatásokat, segélyeket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foglalkoztatottak egyéb személyi juttatásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt jelennek meg a máshol nem elszámolható juttatások, kifizetések, illetve a foglalkoztatottakra kötött biztosítások díjai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K111301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K111302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Külső személyi juttatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Választott tisztségviselők juttatásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt számolják el az önkormányzati képviselők és a polgármester, alpolgármesterek számára fizetett tiszteletdíjakat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K120101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polgármester, főpolgármester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K120102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helyi önkormányzati képviselő-testület tagja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K120103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpolgármester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munkavégzésre irányuló egyéb jogviszonyban nem saját foglalkoztatottnak fizetett juttatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nem saját foglalkoztatott munkavégzéséért járó juttatások.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb külső személyi juttatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt jelennek meg a nem foglalkoztatottak és nem választott tisztségviselők juttatásai, pl. szakértők, hazi szociális gondozók, jogsegély szolgálatok díjai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munkaadókat terhelő járulékok és szociális hozzájárulási adó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt számolják el a szocho-t, a rehabilitációs hozzájárulást, az eho-t, a táppénz hozzájárulást, az egyéb járulékkifizetéseket, a munkáltató által fizetett személyi jövedelemadót.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dologi kiadások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Polgármesteri Hivatal és intézményeinek készletbeszerzései, üzemeltetéshez kapcsolódó és árubeszerzései, kommunikációs kiadásai, közüzemi díjak, élelmezés, kiküldetések stb. kiadásai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polgármesteri Hivatal dologi kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyöngyösi Közös Önkormányzati Hivatal dologi kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visonta úti Bölcsőde és Családi Napközi dologi kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobó úti Bölcsőde dologi kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyöngyös Város Óvodáinak dologi kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vachott Sándor Városi Könyvtár dologi kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Önkormányzati feladatok dologi kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K30801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Önkormányzat működtetés dologi kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K30802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közétkeztetéssel kapcsolatos feladatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K30803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb dologi kiadások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közszolgáltatási Csoport feladatai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Külföldi kiküldetés, kiadványok, rendezvények dologi kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Városmarketing feladatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honlapfejlesztés, applikációfejlesztés kapcsolódó szervezetfejlesztéssel, marketinggel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyöngyös város oldala 2021-ben megújult - a fejlesztés költségei itt szerepelnek.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takarítási szolgáltatás (intézmények)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közfoglalkoztatás dologi kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biztosítási díjak és önrész</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Képviselői keret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÁFA-fizetési kötelezettség</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intézmények karbantartása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programok, stratégiák kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Környezetvédelmi Alap kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakáscélú dologi kiadások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotavírus elleni védőoltás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPV elleni védőoltás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koronavírus elleni védekezéssel kapcsolatos kiadások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tüzelőanyag támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intézmények GDPR feladatai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drogstratégia megvalósítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Éghajlatváltozási Stratégia felülvizsgálata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308030210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K30804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektek dologi kiadásai össszesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektek nem felhalmozási jellegű kiadásai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulturális és aktív turizmus fejlesztése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeruzsálem Úti Bölcsőde és Óvoda fejlesztése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktív Ház sport- és szabadidőközpont kilakítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMK energetikai korszerűsítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Észak-nyugati városrész rehabilitációja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A társadalmi együttműködés erősítését szolgáló komplex program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMK kulturális fejlesztése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Célzott prevenciós programok a szenvedélybetegségek megelőzésére</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyöngyös és térsége szennyvízelvezetésének és tisztításának fejlesztése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az erdei ökoszisztémák térítésmentesen nyújtott közjóléti funkcióinak fejlesztése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K30805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Üzemeltetésre átadott vagyon dologi kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakások üzemeltetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nem lakás célú helyiségek üzemeltetése (VG Zrt.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nem lakás célú helyiségek üzemeltetése (Várostérség Fejlesztő Kft.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temetők üzemeltetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parkolók üzemeltetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sástó turisztikai létesítmények üzemeltetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K30806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommunális feladatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisegítő mezőgazdasági szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park fenntartás GYÖNGYÖS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park fenntartás MÁTRAFÜRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közterületi játszóeszközök éves karbantartása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intézményi játszóeszközök éves karbantartása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faültetés és pótlás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisegítő mg-i szolgáltatásokkal kapcs. egyéb feladatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gépek helyének kialakítása az Aranysas-Fecske fitnesz parkban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közutak üzemeltetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Útkarbantartás, kátyúzás, táblázás, festés GYÖNGYÖS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Útkarbantartás, kátyúzás, táblázás, festés MÁTRAFÜRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Járdajavítási fel nem osztható keret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közutakkal kapcsolatos egyéb feladatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közvilágítás üzemeltetése, energiagazdálkodás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közvilágítás dologi kiadásai GYÖNGYÖS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közvilágítás dologi kiadásai MÁTRAFÜRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energiagazdálkodással kapcsolatos egyéb feladatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Város- és községgazdálkodás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engedélyek, tervek kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Műszaki ellenőri feladatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parki, intézményi, közterületi év közbeni munkák</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Városgazdai feladatok ellátásának kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingatlanrendezéssel és közbeszerzéssel kapcsolatos kiadások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Településrendezési eszközök készítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Területrendezések</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Termőföld belterületbe vonása (DK-i iparterület))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Város- és községgazdálkodással kapcsolatos egyéb feladatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Önkormányzati tulajdonú ingatlanok bontása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Állategészségügyi feladatok összesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyepmesteri feladatok dologi kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galambállomány ritkítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rágcsáló mentesítés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szúnyog gyérítés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csapadékvíz-elvezetés, köztéri berendezések díjai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csapadékvíz elvezető rendszerek karbantartása GYÖNGYÖS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csapadékvíz elvezető rendszerek karbantartása MÁTRAFÜRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csapadékvíz elvezetéssel, köztéri berendezések üzemeltetésével kapcsolatos egyéb feladatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aknafedelek cseréje a szennyvíz hálózaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Települési hulladék, köztisztasági tevékenység</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közterület takarítás, kézi szemetes ürítés, locsolás, síkosságmentesítés GYÖNGYÖS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közterület takarítás, kézi szemetes ürítés, locsolás, síkosságmentesítés MÁTRAFÜRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illegális hulladék begyűjtése, elszállítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inert hulladék ledarálása és elszállítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Köztisztasági tevékenységgel kapcsolatos egyéb feladatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3080608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mátrai létesítmények fenntartása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Önk. tulajdonban lévő mátrai létesítmények fenntartása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K308060802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mátrai kézi szemétgyűjtők ürítése (VG Zrt.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellátottak pénzbeli juttatásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oktatási ösztöndíjak és egyéb, nem intézményi ellátások.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intézményi ellátottak pénzbeli juttatásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oktatásban résztvevők pénzbeli juttatásai (ösztöndíjak).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K40702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Önkormányzati ösztöndíj rendszer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb nem intézményi ellátások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb működési célú kiadások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Különböző elvonások és befizetések, illetve önkormányzati támogatások kiadásai, tartalékok.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elvonások és befizetések</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A helyi önkormányzatok előző évi elszámolásából származó kiadások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A helyi önkormányzatok törvényi előíráson alapuló befizetései</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K5020201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szolidaritási hozzájárulás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A központi kormányzat 2017 óta ezt az összeget a nagyobb adóerő-képességgel rendelkező települési önkormányzattól vonja el azon felül, hogy ezek a városok eleve kevesebb költségvetési támogatásban részesülnek.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Céljellegű támogatás működésre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közművelődési, oktatási és kultúrális feladatok, támogatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt kerül feltüntetésre többek között a Mátra Honvéd Kaszinó Kulturális Egyesület, a Gyöngyösi Kolping Család Egyesület és a városi diáknap, a középiskolások napja és a 24 órás vetélkedő támogatása (Ktgvetés 3/C melléklet).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sporttevékenység támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt kerül feltüntetésre többek között a sportegyesületek támogatása, a Tour de Hongrie támogatása és a vízhez szoktatás támogatása (Ktgvetés 3/C melléklet).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportfólió Kft. Támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Városi Televízió Kft. Támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyöngyösi Kulturális Nonprofit Kft. Támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb támogatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt kerül feltüntetésre többek közt a polgármesteri, alpolgármesteri keret, a Központi Orvosi Ügyelet támogatása támogatása és a műemléki védettségű ingatlanok támogatása (Ktgvetés 3/C melléklet).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alapítványi támogatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Társulások, nemzetiségi önkormányzatok, civilek működéséhez való hozzájárulások kiadásai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Átadások GYKK Többcélú Társulás részére</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Önkormányzati hozzájárulás Ny-Hevesi Reg. Hull.gazd. Önk. Társulásnak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roma Nemzetiségi Önkormányzat általános támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruszin Nemzetiségi Önkormányzat  általános támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helyi közösségi közlekedéshez hozzájárulás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportfejlesztési koncepció Cselekvési Terv megvalósítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulturális Koncepció Cselekvési Terv megvalósítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ifjúsági Koncepció Cselekvési Terv megvalósítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tartalékok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tartalékok jellemzően évközi többletigények és az elmaradt bevételek pótlására szolgálnak. Az itt elszámolt összegek végleges helyét a költségvetés későbbi módosításával fogják meghatározni.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Általános tartalék</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Köt. terh. Maradvány</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K50503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Céltartalékok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beruházások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immateriális javak, ingatlanok, tartós tárgyi eszközök beszerzése, létesítése.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Önkormányzat beruházási feladai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vízgazdálkodás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szállítás, közlekedés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energia, közvilágítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parkok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb (fejlesztési keretek, gépek, eszközök)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pályázatok beruházási kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktív Ház sport- és szabadidőközpont kialakítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K60209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakáscélú beruházási kiadások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közös Önkormányzati Hivatal és intézmények beruházásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felújítások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingatlanok, informatikai eszközök, egyéb tárgyi eszközök felújítása, korszerűsítése.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Önkormányzat felújítási feladatai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K70101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K70102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K70103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közvilágítás korszerűsítése (fejlesztési hitel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K70104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb felújítások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7010401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intézményfelújítási keret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7010402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mátra Honvéd Kaszinó tetőfelújítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7010403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Károly Róbert Középiskola homlokzat felújítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7010404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farkasmály, pincesor felett leomlott támfal helyreállítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7010405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tündérkert Tagóvoda és Visonta Úti Bölcsőde wc, udvar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7010406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobó Úti Óvoda és Bölcsőde tetőfelújítás 2. ütem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7010407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiók könyvtár felújítás folytatása, WC, előtér, bejárati lépcső felújítása, rámpa kialakítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7010408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felsővárosi Általános Iskola tetőfelújítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7010409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sástói kilátó felújítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pályázatok felújítási kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K70201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K70202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K70203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K70204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vachott Sándor Városi Könyvtár felújítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb felhalmozási célú kiadások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellenérték nélküli kifizetések, amelyeket az önkormányzat felhalmozási célból nyújt küldő szereplőknek (pl. civilek, állami szervek, egyházak).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Céljellegű támogatás fejlesztésre (nem kötelező feladat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K80101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportfólió Kft. Támogatása (felhalm.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K80102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Városi Televízió Kft. Támogatása (felhalm.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K80103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barátok Temploma toronyfelújítás támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K80104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyöngyösi Rendőrkapitányság támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K80105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helyi védelem alá helyezett értékek fenntartása, homlokzat-felújítási alap és műemléki védettségű ingatlanok támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K80106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akadálymentesítés támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyöngyös-Strand Kft. (pótbefizetés)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyöngyös-Sportcsarnok Kft. (pótbefizetés)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakáshoz jutók helyi támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munkáltatói kölcsön</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pénzeszköz átadás Vak Bottyán J. Katolikus Középiskolának vizes blokkok felújításához</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Műfüves pályához önerő (Energia SC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egressy Béni Á.I.-ban kisméretű műfüves sportpálya megépítéséhez önerő Energia SC-nek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finanszírozási kiadások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitel törlesztése, értékpapírok vásárlása.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belföldi finanszírozás kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitel-, kölcsöntörlesztés államháztartáson kívülre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K9111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosszú lejáratú hitelek, kölcsönök törlesztése pénzügyi vállalkozásnak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belföldi értékpapírok kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Államháztartáson belüli megelőlegezések visszafizetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiteltörlesztés, értékpapírvásárlás, megelőlegzések visszafizetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IK1</t>
   </si>
   <si>
     <t xml:space="preserve">Döntően a központi költségvetésből kapott, normatív alapon járó, feladatfinanszírozási és kiegészítő támogatások.</t>
   </si>
   <si>
-    <t xml:space="preserve">B11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Önkormányzatok működési támogatásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Döntően a központi költségvetésből a napi működés kötelező feladataira kapott, kötött felhasználású támogatások tartoznak ide.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helyi önkormányzatok működésének általános támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A központi költségvetésből az önkormányzatok részére pl. a hivatal működtetésére, településüzemeltetésre (zöldterület-gazdálkodás, közvilágítás, köztemetők) juttatott feladatalapú támogatás. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Települési önkormányzatok egyes köznevelési feladatainak támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A központi költségvetésből az önkormányzatok egyes köznevelési feladatainak (pl. óvodaműködtetés) támogatására biztosított feladatalapú és kiegészítő támogatások.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Települési önkormányzatok szociális gyermekjóléti és gyermekétkeztetési feladatainak támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A központi költségvetésből az önkormányzatok szociális, gyermekjóléti és gyermekétkeztetési feladatainak (ide értve a bölcsődéket) támogatására biztosított feladatalapú és kiegészítő támogatások.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Települési önkormányzatok egyes szociális és gyermekjóléti feladatainak támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Települési önkormányzatok gyermekétkeztetési feladatainak támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Települési önkormányzatok kulturális feladatainak támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A központi költségvetésből az önkormányzatok könyvtári, közművelődési és múzeumi feladatainak támogatására biztosított feladatalapú és kiegészítő támogatások.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Működési célú költségvetési támogatások és kiegészítő támogatások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A központi költségvetésből az önkormányzatok részére adott rendkívüli támogatások, kamattámogatások és egyéb működési célú támogatások bevételei.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb működési célú támogatások bevételei államháztartáson belülről</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Az önkormányzat által visszafizetési kötelezettség nélkül, véglegesen kapott egyéb működési támogatások összege, illetve a más szervezetek számára így nyújtott támogatások visszafizetése.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb működési célú támogatások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B160101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEAK-támogatás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B160102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közfoglalkoztatás támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B160103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mezőőri szolgálat működés támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B160104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fejlesztő foglalkoztatás támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B160105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Társulási koordinátor és pü.ügyintéző személyi juttatás megtérítése (Többcélú Társulás)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B160106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Társulási koordinátor és pü.ügyintéző személyi juttatás megtérítése (Ny-Hevesi Reg. Hull.gazd. Önk. Társulás)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B160107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szociális ágazati összevont pótlék</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B160108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kulturális illetménypótlék</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B160109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyári napközis tábor, nyári diákmunka, autómentes nap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B160110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utcai szociális munka támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektek működési célú támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B160201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kulturális és közösségi terek infrastrukturális fejlesztése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B160202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Célzott prevenciós programok a szenvedélybetegségek megelőzése érdekében</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B160203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szennyvízelvezetés fejlesztése projektből lehívható ÁFA támogatás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felhalmozási célú támogatások államháztartáson belülről</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A központi költségvetésből felhalmozási célra (pl. beruházásokra) kapott támogatások.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szennyvízelvezetésének és tisztításának fejlesztése önerő</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingyenes WIFI pontok kialakítása (WIFI4EU pályázat)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Új ipari terület kialakítása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Az erdei ökoszisztémák térítésmentes közjóléti funkcióinak fejlesztése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közhatalmi bevételek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A lakosok és a helyi vállalatok által befizetett helyi adók, díjak, bírságok. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vagyoni tipusú adók</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Építményadóból, magánszemélyek kommunális adójából származó bevételek.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Építményadó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magánszemélyek kommunális adója</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termékek és szolgáltatások adói</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helyi iparűzési adóból, gépjárműadóból, idegenforgalmi adóból származó bevételek.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helyi iparűzési adó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gépjárműadók</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idegenforgalmi adó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb közhatalmi bevételek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talajterhelési díjból, adópótlékból-adóbírságból, közösségellenes bírságból származó bevételek.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talajterhelési díj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adópótlék, adóbírság</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közösségellenes bírság</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Működési bevételek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Döntően a nyújtott szolgáltatásokból származó bevétel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szolgáltatások ellenértéke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közvetített szolgáltatások ellenértéke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulajdonosi bevételek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellátási díjak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiszámlázott általános forgalmi adó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Általános forgalmi adó visszatérítése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamatbevételek és más nyereségjellegű bevételek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B4081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Befektetett pénzügyi eszközökből származó bevételek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B4082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb kapott (járó) kamatok és kamatjellegű bevételek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb működési bevételek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felhalmozási bevételek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingatlanok és tárgyi eszközök értékesítéséből származó bevétel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingatlanok értékesítése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb tárgyi eszközök értékesítése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Működési célú átvett pénzeszközök</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helyi cégeknek adott (tagi) kölcsön megtérülése, átmeneti finanszírozások visszafizetéséből, túlfizetésből származó bevétel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tagi kölcsön megtérülése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Új Nap Egyesület átmeneti finanszírozás visszafizetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gyöngyösi Kulturális NKft. átmeneti finanszírozás visszafizetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gyöngyösi Úszó Alapítvány átmeneti finanszírozás visszafizetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gyöngyösi Amatőr Színjátszásért Khe. átmeneti finanszírozás visszafizetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meseházikó Alapítvány átmeneti finanszírozás visszafizetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hozzájárulás mezőőri szolgálathoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közérdekű felajánlások koronavírus elleni védekezéshez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volánbusz támogatás túlfizetés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYAK női szakosztály működtetésére adott kölcsön visszafizetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felhalmozási célú átvett pénzeszközök</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felhalmozási célra adott támogatások, kölcsönök visszatérülése, államháztartáson kívüli szervezetektől és személyektől ellenérték nélkül, felhalmozási céllal kapott bevételek.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felhalmozási célú visszatérítendő támogatások, kölcsönök visszatérülése államháztartáson kívülről</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakáshoz jutók helyi támogatás megtérülése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dolgozók lakásép. támogatás megtérülése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gyöngyösi Kézilabda Klub finanszírozás visszafizetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mátrai Hegyközségek Nonprofit Kft. finanszírozás visszafizetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb felhalmozási célú átvett pénzeszközök</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gáz-, Zsellérköz csatorna csatlakozási díj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMSZSZ hozzájárulása Károly Róbert Középiskola felújításához</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finanszírozási bevételek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hitel-, kölcsönfelvétel, értékpapírok bevételei, előző évi maradványok igénybevétele.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belföldi finanszírozás bevételei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hitel-, kölcsönfelvétel pénzügyi vállalkozástól</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B8111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hosszú lejáratú hitelek, kölcsönök felvétele pénzügyi vállalkozástól</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belföldi értékpapírok bevételei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B8123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Befektetési célú belföldi értékpapírok beváltása, értékesítése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maradvány igénybevétele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B8131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Előző év költségvetési maradványának igénybevétele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A korábbi évek gazdálkodásának szabadon felhasználható eredménye, illetve a folyamatban lévő fejlesztési projektek még fel nem használt támogatásai.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Államháztartáson belüli megelőlegezések</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fejlesztési hitel, értékpapírok eladása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Az ebből származó bevétel fejlesztéseket finanszíroz.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Áthúzódó projektek, szabad maradvány, elszámolások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irányítószervi támogatás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Az irányítószervi támogatások - az önkormányzat intézményeiknek adott támogatások - számviteli okból duplán szerepelnek a költségvetés főösszegében. A valóságban ezek természetesen csak egyszer kerülnek elköltésre, így a bevételi és kiadási ábrákon már csak végső rendeltetésük szerint szerepeltetjük őket. Ez magyarázza, hogy ott a költségvetés főösszegénél ennyivel kisebb összeg kerül bemutatásra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Személyi juttatások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illetmények, munkabérek, más juttatások (pl. képviselői tiszteletdíj), megbízási díj, reprezentációs kiadás, költségtérítés.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foglalkoztatottak személyi juttatásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Törvény szerinti illetmények, munkabérek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Az önkormányzat által foglalkoztatott köztisztviselők, kormánytisztviselők, ügykezelők, közalkalmazottak stb. illetménye, pótlékai, díjai és bérei.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K110101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Köztisztviselők, kormánytisztviselők</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K110102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közalkalmazottak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K110103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb bérrendszer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K11010301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felsőfokú végzettségű (nem vezető)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K11010302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fizikai alkalmazott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K11010303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közfoglalkoztatott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normatív jutalmak, céljuttatás, projektprémium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Előre meghatározott követelményekhez kapcsolódó jutalmak.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K110201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K110202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Készenléti, ügyeleti, helyettesítési díj, túlóra, túlszolgálat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K110401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K110402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb bérrendszer (fizikai alkalmazottak)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Végkielégítés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A foglalkoztatottaknak megállapított végkielégítés összege.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jubileumi jutalom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jubileumi és hűségjutalmak.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Béren kívüli juttatások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itt kell elszámolni a foglalkoztatottak részére juttatott, a személyi jövedelemadóról szóló törvény szerinti béren kívüli juttatásokat és egyes meghatározott juttatásokat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K110701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K110702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K110703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közlekedési költségtérítés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itt kell elszámolni a munkába járással kapcsolatos személygépkocsi használat után fizetendő költségtérítést, továbbá a foglalkoztatottaknak megállapított más utazási költségtérítéseket.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb költségtérítések</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Máshol nem elszámolható költségtérítések.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szociális támogatások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itt kell elszámolni a foglalkoztatottaknak szociális alapon megállapított eseti szociális támogatásokat, segélyeket.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foglalkoztatottak egyéb személyi juttatásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itt jelennek meg a máshol nem elszámolható juttatások, kifizetések, illetve a foglalkoztatottakra kötött biztosítások díjai.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K111301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K111302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Külső személyi juttatások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Választott tisztségviselők juttatásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itt számolják el az önkormányzati képviselők és a polgármester, alpolgármesterek számára fizetett tiszteletdíjakat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K120101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polgármester, főpolgármester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K120102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">helyi önkormányzati képviselő-testület tagja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K120103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpolgármester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munkavégzésre irányuló egyéb jogviszonyban nem saját foglalkoztatottnak fizetett juttatások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nem saját foglalkoztatott munkavégzéséért járó juttatások.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K1203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb külső személyi juttatások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itt jelennek meg a nem foglalkoztatottak és nem választott tisztségviselők juttatásai, pl. szakértők, hazi szociális gondozók, jogsegély szolgálatok díjai.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munkaadókat terhelő járulékok és szociális hozzájárulási adó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itt számolják el a szocho-t, a rehabilitációs hozzájárulást, az eho-t, a táppénz hozzájárulást, az egyéb járulékkifizetéseket, a munkáltató által fizetett személyi jövedelemadót.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dologi kiadások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Polgármesteri Hivatal és intézményeinek készletbeszerzései, üzemeltetéshez kapcsolódó és árubeszerzései, kommunikációs kiadásai, közüzemi díjak, élelmezés, kiküldetések stb. kiadásai.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polgármesteri Hivatal dologi kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gyöngyösi Közös Önkormányzati Hivatal dologi kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visonta úti Bölcsőde és Családi Napközi dologi kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobó úti Bölcsőde dologi kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gyöngyös Város Óvodáinak dologi kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vachott Sándor Városi Könyvtár dologi kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Önkormányzati feladatok dologi kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K30801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Önkormányzat működtetés dologi kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K30802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közétkeztetéssel kapcsolatos feladatok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K30803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb dologi kiadások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közszolgáltatási Csoport feladatai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Külföldi kiküldetés, kiadványok, rendezvények dologi kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Városmarketing feladatok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honlapfejlesztés, applikációfejlesztés kapcsolódó szervezetfejlesztéssel, marketinggel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takarítási szolgáltatás (intézmények)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közfoglalkoztatás dologi kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biztosítási díjak és önrész</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Képviselői keret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÁFA-fizetési kötelezettség</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intézmények karbantartása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programok, stratégiák kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Környezetvédelmi Alap kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakáscélú dologi kiadások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotavírus elleni védőoltás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPV elleni védőoltás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koronavírus elleni védekezéssel kapcsolatos kiadások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tüzelőanyag támogatás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intézmények GDPR feladatai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drogstratégia megvalósítása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Éghajlatváltozási Stratégia felülvizsgálata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308030210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K30804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektek dologi kiadásai össszesen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektek nem felhalmozási jellegű kiadásai.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kulturális és aktív turizmus fejlesztése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeruzsálem Úti Bölcsőde és Óvoda fejlesztése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aktív Ház sport- és szabadidőközpont kilakítása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMK energetikai korszerűsítése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Észak-nyugati városrész rehabilitációja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A társadalmi együttműködés erősítését szolgáló komplex program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMK kulturális fejlesztése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Célzott prevenciós programok a szenvedélybetegségek megelőzésére</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gyöngyös és térsége szennyvízelvezetésének és tisztításának fejlesztése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Az erdei ökoszisztémák térítésmentesen nyújtott közjóléti funkcióinak fejlesztése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K30805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Üzemeltetésre átadott vagyon dologi kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakások üzemeltetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nem lakás célú helyiségek üzemeltetése (VG Zrt.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nem lakás célú helyiségek üzemeltetése (Várostérség Fejlesztő Kft.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temetők üzemeltetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parkolók üzemeltetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sástó turisztikai létesítmények üzemeltetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K30806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommunális feladatok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisegítő mezőgazdasági szolgáltatások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Park fenntartás GYÖNGYÖS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Park fenntartás MÁTRAFÜRED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közterületi játszóeszközök éves karbantartása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intézményi játszóeszközök éves karbantartása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faültetés és pótlás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisegítő mg-i szolgáltatásokkal kapcs. egyéb feladatok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gépek helyének kialakítása az Aranysas-Fecske fitnesz parkban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közutak üzemeltetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Útkarbantartás, kátyúzás, táblázás, festés GYÖNGYÖS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Útkarbantartás, kátyúzás, táblázás, festés MÁTRAFÜRED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Járdajavítási fel nem osztható keret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közutakkal kapcsolatos egyéb feladatok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közvilágítás üzemeltetése, energiagazdálkodás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közvilágítás dologi kiadásai GYÖNGYÖS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közvilágítás dologi kiadásai MÁTRAFÜRED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energiagazdálkodással kapcsolatos egyéb feladatok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Város- és községgazdálkodás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engedélyek, tervek kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Műszaki ellenőri feladatok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parki, intézményi, közterületi év közbeni munkák</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Városgazdai feladatok ellátásának kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingatlanrendezéssel és közbeszerzéssel kapcsolatos kiadások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Településrendezési eszközök készítése</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Területrendezések</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termőföld belterületbe vonása (DK-i iparterület))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Város- és községgazdálkodással kapcsolatos egyéb feladatok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Önkormányzati tulajdonú ingatlanok bontása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Állategészségügyi feladatok összesen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gyepmesteri feladatok dologi kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galambállomány ritkítása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rágcsáló mentesítés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szúnyog gyérítés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Csapadékvíz-elvezetés, köztéri berendezések díjai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Csapadékvíz elvezető rendszerek karbantartása GYÖNGYÖS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Csapadékvíz elvezető rendszerek karbantartása MÁTRAFÜRED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Csapadékvíz elvezetéssel, köztéri berendezések üzemeltetésével kapcsolatos egyéb feladatok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aknafedelek cseréje a szennyvíz hálózaton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Települési hulladék, köztisztasági tevékenység</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közterület takarítás, kézi szemetes ürítés, locsolás, síkosságmentesítés GYÖNGYÖS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közterület takarítás, kézi szemetes ürítés, locsolás, síkosságmentesítés MÁTRAFÜRED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illegális hulladék begyűjtése, elszállítása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inert hulladék ledarálása és elszállítása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Köztisztasági tevékenységgel kapcsolatos egyéb feladatok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3080608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mátrai létesítmények fenntartása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Önk. tulajdonban lévő mátrai létesítmények fenntartása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K308060802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mátrai kézi szemétgyűjtők ürítése (VG Zrt.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellátottak pénzbeli juttatásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oktatási ösztöndíjak és egyéb, nem intézményi ellátások.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intézményi ellátottak pénzbeli juttatásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oktatásban résztvevők pénzbeli juttatásai (ösztöndíjak).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K40702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Önkormányzati ösztöndíj rendszer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb nem intézményi ellátások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb működési célú kiadások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Különböző elvonások és befizetések, illetve önkormányzati támogatások kiadásai, tartalékok.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elvonások és befizetések</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A helyi önkormányzatok előző évi elszámolásából származó kiadások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A helyi önkormányzatok törvényi előíráson alapuló befizetései</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K5020201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szolidaritási hozzájárulás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A központi kormányzat 2017 óta ezt az összeget a nagyobb adóerő-képességgel rendelkező települési önkormányzattól vonja el azon felül, hogy ezek a városok eleve kevesebb költségvetési támogatásban részesülnek.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Céljellegű támogatás működésre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közművelődési, oktatási és kultúrális feladatok, támogatások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sporttevékenység támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sportfólió Kft. Támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Városi Televízió Kft. Támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gyöngyösi Kulturális Nonprofit Kft. Támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb támogatások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alapítványi támogatások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Társulások, nemzetiségi önkormányzatok, civilek működéséhez való hozzájárulások kiadásai.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Átadások GYKK Többcélú Társulás részére</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Önkormányzati hozzájárulás Ny-Hevesi Reg. Hull.gazd. Önk. Társulásnak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roma Nemzetiségi Önkormányzat általános támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruszin Nemzetiségi Önkormányzat  általános támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helyi közösségi közlekedéshez hozzájárulás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sportfejlesztési koncepció Cselekvési Terv megvalósítása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kulturális Koncepció Cselekvési Terv megvalósítása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ifjúsági Koncepció Cselekvési Terv megvalósítása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tartalékok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A tartalékok jellemzően évközi többletigények és az elmaradt bevételek pótlására szolgálnak. Az itt elszámolt összegek végleges helyét a költségvetés későbbi módosításával fogják meghatározni.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Általános tartalék</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Köt. terh. Maradvány</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K50503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Céltartalékok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beruházások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immateriális javak, ingatlanok, tartós tárgyi eszközök beszerzése, létesítése.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Önkormányzat beruházási feladai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K60101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vízgazdálkodás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K60102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szállítás, közlekedés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K60103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energia, közvilágítás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K60104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parkok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K60105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb (fejlesztési keretek, gépek, eszközök)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pályázatok beruházási kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K60202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K60203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K60204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aktív Ház sport- és szabadidőközpont kialakítása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K60205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K60206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K60207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K60208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K60209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakáscélú beruházási kiadások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közös Önkormányzati Hivatal és intézmények beruházásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felújítások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingatlanok, informatikai eszközök, egyéb tárgyi eszközök felújítása, korszerűsítése.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Önkormányzat felújítási feladatai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K70101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K70102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K70103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Közvilágítás korszerűsítése (fejlesztési hitel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K70104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb felújítások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K7010401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intézményfelújítási keret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K7010402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mátra Honvéd Kaszinó tetőfelújítás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K7010403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Károly Róbert Középiskola homlokzat felújítás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K7010404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farkasmály, pincesor felett leomlott támfal helyreállítása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K7010405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tündérkert Tagóvoda és Visonta Úti Bölcsőde wc, udvar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K7010406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobó Úti Óvoda és Bölcsőde tetőfelújítás 2. ütem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K7010407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiók könyvtár felújítás folytatása, WC, előtér, bejárati lépcső felújítása, rámpa kialakítása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K7010408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felsővárosi Általános Iskola tetőfelújítás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K7010409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sástói kilátó felújítása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pályázatok felújítási kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K70201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K70202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K70203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K70204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vachott Sándor Városi Könyvtár felújítás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyéb felhalmozási célú kiadások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellenérték nélküli kifizetések, amelyeket az önkormányzat felhalmozási célból nyújt küldő szereplőknek (pl. civilek, állami szervek, egyházak).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Céljellegű támogatás fejlesztésre (nem kötelező feladat)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K80101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sportfólió Kft. Támogatása (felhalm.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K80102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Városi Televízió Kft. Támogatása (felhalm.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K80103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barátok Temploma toronyfelújítás támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K80104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gyöngyösi Rendőrkapitányság támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K80105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helyi védelem alá helyezett értékek fenntartása, homlokzat-felújítási alap és műemléki védettségű ingatlanok támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K80106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akadálymentesítés támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gyöngyös-Strand Kft. (pótbefizetés)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gyöngyös-Sportcsarnok Kft. (pótbefizetés)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakáshoz jutók helyi támogatása</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munkáltatói kölcsön</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pénzeszköz átadás Vak Bottyán J. Katolikus Középiskolának vizes blokkok felújításához</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Műfüves pályához önerő (Energia SC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egressy Béni Á.I.-ban kisméretű műfüves sportpálya megépítéséhez önerő Energia SC-nek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finanszírozási kiadások</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hitel törlesztése, értékpapírok vásárlása.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belföldi finanszírozás kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hitel-, kölcsöntörlesztés államháztartáson kívülre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K9111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hosszú lejáratú hitelek, kölcsönök törlesztése pénzügyi vállalkozásnak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belföldi értékpapírok kiadásai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Államháztartáson belüli megelőlegezések visszafizetése</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IK1</t>
-  </si>
-  <si>
     <t xml:space="preserve">B11501</t>
   </si>
   <si>
     <t xml:space="preserve">Idegenforgami adó kiesés ellentételezése</t>
   </si>
   <si>
+    <t xml:space="preserve">Felhalmozás támogatások államháztartáson belülről</t>
+  </si>
+  <si>
     <t xml:space="preserve">Szennyvízelvezetés és tisztítás fejlesztése önerő</t>
   </si>
   <si>
@@ -2471,10 +2496,50 @@
     <t xml:space="preserve">Szennyvízelvezetés és tisztítás fejlesztése</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Irányítószervi támogatás</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">IB2</t>
   </si>
   <si>
-    <t xml:space="preserve">Folyószámlahitel lehívás</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Folyószámlahitel lehívás</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Az önkormányzatok folyószámla-hitelkeretet tartanak fenn, hogy így biztosítsák a folyamatos likviditást. Számviteli értelemben e soron minden egyes tranzakciót bevételként és kiadásként is könyvelni kell, így a feltüntetett összeg a költségvetés-módosításig megtörtént tranzakciók összértékét mutatja. Figyelem! Finanszírozási és nem költségvetési kiadásról van szó, Gyöngyös a törvényi előírásnak megfelelően minden likvid hitelét visszafizette az év végéig.</t>
@@ -2558,6 +2623,9 @@
     <t xml:space="preserve">K50602</t>
   </si>
   <si>
+    <t xml:space="preserve">Kötelezettséggel terhelt maradvány</t>
+  </si>
+  <si>
     <t xml:space="preserve">K50603</t>
   </si>
   <si>
@@ -2576,10 +2644,51 @@
     <t xml:space="preserve">Gyöngyösi Kulturális NKft. Felhalm. támogatása</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Irányítószervi támogatás</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">IK2</t>
   </si>
   <si>
-    <t xml:space="preserve">Folyószámlahitel törlesztés (IK2)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">❌ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Folyószámlahitel törlesztés</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">nodeId</t>
@@ -2608,7 +2717,7 @@
   <si>
     <t xml:space="preserve">Kódszám: TOP-4.3.1-15-HE1-2016-00001
 Támogatási összeg: 520 000 000 Ft
-Gyöngyös  északnyugati városrészében két szegregált terület található, melyek a városban az egyik legrosszabb műszaki állapotú épületállománnyal rendelkeznek. A városrész felújítása, integrációja érdekében az Önkormányzat 520 millió Ft összköltségű pályázatot nyújtott be 2016-ban a TOP „Leromlott városi területek rehabilitációja” című felhívásra, melyet 2017-ben hagytak jóvá. A projekt keretén belül megvalósul a Petőfi Sándor utca 32-34 szám alatt található barokk stílusú, műemlékként számontartott kastély, a „Haller ház” felújítása. is. A lakófunkció erősítése érdekében a területen megtörténik több bérlakás komfortosítása. Ezen kívül kialakításra kerülnek közösségi célra hasznosítható terek, illetve közmű-infrastruktúra és úthálózat kerül kiépítésre.</t>
+Gyöngyös  északnyugati városrészében két szegregált terület található, melyek a városban az egyik legrosszabb műszaki állapotú épületállománnyal rendelkeznek. A városrész felújítása, integrációja érdekében az Önkormányzat 520 millió Ft összköltségű pályázatot nyújtott be 2016-ban a TOP „Leromlott városi területek rehabilitációja” című felhívásra, melyet 2017-ben hagytak jóvá. A projekt keretén belül megvalósul a Petőfi Sándor utca 32-34 szám alatt található barokk stílusú, műemlékként számontartott kastély, a „Haller-ház” felújítása. is. A lakófunkció erősítése érdekében a területen megtörténik több bérlakás komfortosítása. Ezen kívül kialakításra kerülnek közösségi célra hasznosítható terek, illetve közmű-infrastruktúra és úthálózat kerül kiépítésre.</t>
   </si>
   <si>
     <t xml:space="preserve">assets/img/eszaknyugati-varosresz2.jpg</t>
@@ -2671,7 +2780,7 @@
   <si>
     <t xml:space="preserve">2021-től szeretnénk meghonosítani a részvételi költségvetés intézményét Gyöngyösön. A cél az, hogy az adóforintok egy részéről a polgárok döntsenek közvetlen módon, szavazással. A projekt tervezett lépései:
 1. **Javaslattétel:** Bárki benyújthat javaslatot olyan fejlesztésekre, amely szerinte leginkább szolgálná a város érdekét. Fontos, hogy a javaslatok ne egy szűk területre vonatkozzanak, vagy egy szűk társadalmi csoporttal legyenek kapcsolatosak, hanem a város vagy városrész egészének az érdekét szolgálják. Pl. parkosítás, több kamera, több forrás a köztisztaságért.
-2. **Előszűrés:** A beérkezett javaslatokat az önkormányzat megvizsgálja és kiszűri azokat, amelyek valamilyen jogi vagy gazdasági tényező miatt nem megvalósíthatóak, már eleve be vannak tervezve az adott költségvetési évre. A megmaradt javaslatok egy részben gyöngyösi lakosokból álló bizottság elé kerülnek, amely véglegesíti a szavazható javaslatok listáját.
+2. **Előszűrés:** A beérkezett javaslatokat az önkormányzat megvizsgálja és kiszűri azokat, amelyek valamilyen jogi vagy gazdasági tényező miatt nem megvalósíthatóak, vagy már eleve be vannak tervezve az adott költségvetési évre. A megmaradt javaslatok egy részben gyöngyösi lakosokból álló bizottság elé kerülnek, amely véglegesíti a szavazható javaslatok listáját.
 3.  **Döntés** A javaslatokról a gyöngyösi lakosok szavazhatnak, a legtöbb szavazatot kapó javaslatokat az önkormányzat megvalósítja.</t>
   </si>
 </sst>
@@ -2683,7 +2792,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2730,8 +2839,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b val="true"/>
@@ -2768,6 +2877,26 @@
       <name val="Calibri"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2877,7 +3006,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2918,12 +3047,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3016,13 +3149,13 @@
   </sheetPr>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="C8 A1"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.85"/>
@@ -3040,7 +3173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3139,7 +3272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3451,7 +3584,7 @@
       <c r="A39" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -3480,7 +3613,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>112</v>
       </c>
@@ -3502,7 +3635,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>117</v>
       </c>
@@ -3613,9 +3746,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://gyongyos.deepdata.hu/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3631,15 +3761,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C319"/>
+  <dimension ref="A1:C320"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C319" activeCellId="1" sqref="C8 C319"/>
+      <selection pane="bottomLeft" activeCell="C143" activeCellId="0" sqref="C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.86"/>
@@ -4998,155 +5128,157 @@
       <c r="B142" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C142" s="4"/>
+      <c r="C142" s="4" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C143" s="4"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C145" s="4"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C152" s="4"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>446</v>
@@ -5155,18 +5287,18 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>215</v>
@@ -5175,61 +5307,61 @@
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>202</v>
@@ -5238,903 +5370,909 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C174" s="4"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C175" s="4"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C176" s="4"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C178" s="4"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C179" s="4"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C180" s="4"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C181" s="4"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C183" s="4"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C184" s="4"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C185" s="4"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C186" s="4"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C188" s="4"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C189" s="4"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C190" s="4"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C191" s="4"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C192" s="4"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C193" s="4"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C198" s="4"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C199" s="4"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C200" s="4"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C204" s="4"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C210" s="4"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C211" s="4"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C212" s="4"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C213" s="4"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C214" s="4"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C215" s="4"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C216" s="4"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C217" s="4"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C219" s="4"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C223" s="4"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C224" s="4"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C225" s="4"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C230" s="4"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C231" s="4"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="C238" s="4"/>
+        <v>650</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C239" s="4"/>
+        <v>653</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C240" s="4"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C241" s="4"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="C243" s="4"/>
+        <v>662</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C244" s="4"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C246" s="4"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C247" s="4"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C248" s="4"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C250" s="4"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C252" s="4"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C254" s="4"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C256" s="4"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C257" s="4"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C258" s="4"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C260" s="4"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C261" s="4"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C262" s="4"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C263" s="4"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C264" s="4"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C265" s="4"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C266" s="4"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>215</v>
@@ -6143,34 +6281,34 @@
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C268" s="4"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C269" s="4"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C270" s="4"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>204</v>
@@ -6179,16 +6317,16 @@
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C272" s="4"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>218</v>
@@ -6197,7 +6335,7 @@
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>213</v>
@@ -6206,416 +6344,425 @@
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C275" s="4"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C276" s="4"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C278" s="4"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C279" s="4"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C280" s="4"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C281" s="4"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C282" s="4"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C283" s="4"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C284" s="4"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C285" s="4"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C286" s="4"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C287" s="4"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C288" s="4"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C289" s="4"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C290" s="4"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C291" s="4"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C292" s="4"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C293" s="4"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C294" s="4"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C295" s="4"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C296" s="4"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C297" s="4"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C299" s="4"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C300" s="4"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C301" s="4"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C302" s="4"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C303" s="4"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C304" s="4"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C305" s="4"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C306" s="4"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C307" s="4"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C308" s="4"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C309" s="4"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C310" s="4"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C311" s="4"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C312" s="4"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C314" s="4"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C315" s="4"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C316" s="4"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C317" s="4"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="7" t="s">
-        <v>802</v>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="8" t="s">
+        <v>806</v>
       </c>
       <c r="B319" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="C319" s="8"/>
+    </row>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="B320" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C319" s="8" t="s">
+      <c r="C320" s="8" t="s">
         <v>347</v>
       </c>
     </row>
@@ -6635,15 +6782,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C318"/>
+  <dimension ref="A1:C319"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C95" activeCellId="1" sqref="C8 C95"/>
+      <selection pane="bottomLeft" activeCell="C319" activeCellId="0" sqref="C319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.86"/>
@@ -6669,7 +6816,7 @@
         <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>151</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6758,10 +6905,10 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -6916,7 +7063,7 @@
         <v>207</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>208</v>
+        <v>812</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>209</v>
@@ -6927,16 +7074,16 @@
         <v>210</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="C30" s="4"/>
     </row>
@@ -7526,8 +7673,8 @@
       <c r="A93" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>346</v>
+      <c r="B93" s="10" t="s">
+        <v>816</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>347</v>
@@ -7535,13 +7682,13 @@
     </row>
     <row r="94" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>808</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>810</v>
+        <v>817</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7594,7 +7741,7 @@
         <v>374</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7871,146 +8018,148 @@
       <c r="B127" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C127" s="4"/>
+      <c r="C127" s="4" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C128" s="4"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C129" s="4"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C130" s="4"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C138" s="4"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C139" s="4"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>446</v>
@@ -8019,18 +8168,18 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>215</v>
@@ -8039,61 +8188,61 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>202</v>
@@ -8102,1011 +8251,1017 @@
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C160" s="4"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C161" s="4"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C174" s="4"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C175" s="4"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C176" s="4"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C178" s="4"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C179" s="4"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C180" s="4"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C181" s="4"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C183" s="4"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C184" s="4"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C185" s="4"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C186" s="4"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C188" s="4"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C189" s="4"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C190" s="4"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C191" s="4"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C192" s="4"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C193" s="4"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C198" s="4"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C199" s="4"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C200" s="4"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C204" s="4"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C210" s="4"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C211" s="4"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="C214" s="4"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C215" s="4"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C216" s="4"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C219" s="4"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="C223" s="4"/>
+        <v>823</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C224" s="4"/>
+        <v>653</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C225" s="4"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="C228" s="4"/>
+        <v>662</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C229" s="4"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C231" s="4"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C232" s="4"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C236" s="4"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C238" s="4"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C239" s="4"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="C240" s="4"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="C241" s="4"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="C242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C243" s="4"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="C244" s="4"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="C245" s="4"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="C246" s="4"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="C247" s="4"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="C248" s="4"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="C249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>687</v>
+        <v>846</v>
       </c>
       <c r="C252" s="4"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C255" s="4"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C256" s="4"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C257" s="4"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C258" s="4"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C259" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C260" s="4"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C261" s="4"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="C262" s="4"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>215</v>
@@ -9115,34 +9270,34 @@
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C264" s="4"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C265" s="4"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C266" s="4"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>204</v>
@@ -9151,16 +9306,16 @@
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C268" s="4"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>218</v>
@@ -9169,7 +9324,7 @@
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>213</v>
@@ -9178,444 +9333,453 @@
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C271" s="4"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C272" s="4"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C274" s="4"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C275" s="4"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C276" s="4"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C277" s="4"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C278" s="4"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C279" s="4"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C280" s="4"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C281" s="4"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C282" s="4"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C283" s="4"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C284" s="4"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C285" s="4"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C286" s="4"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C287" s="4"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C288" s="4"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C289" s="4"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C290" s="4"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C291" s="4"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C292" s="4"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C293" s="4"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C294" s="4"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C296" s="4"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C297" s="4"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C298" s="4"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C299" s="4"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C300" s="4"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="C301" s="4"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C302" s="4"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="C303" s="4"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C304" s="4"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C305" s="4"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C306" s="4"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C307" s="4"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C308" s="4"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C309" s="4"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C310" s="4"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C312" s="4"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C313" s="4"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C314" s="4"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C315" s="4"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C316" s="4"/>
     </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="7" t="s">
-        <v>802</v>
+    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="8" t="s">
+        <v>806</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C317" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="C317" s="8"/>
+    </row>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="B318" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C318" s="8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="7" t="s">
-        <v>843</v>
-      </c>
-      <c r="B318" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="C318" s="10" t="s">
-        <v>810</v>
+    <row r="319" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="B319" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -9636,13 +9800,13 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="118.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.43"/>
@@ -9652,166 +9816,166 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>855</v>
+      <c r="C4" s="13" t="s">
+        <v>866</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>857</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>855</v>
+      <c r="C5" s="13" t="s">
+        <v>866</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>857</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>859</v>
+        <v>870</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>859</v>
+        <v>870</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>861</v>
+      <c r="C8" s="13" t="s">
+        <v>872</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>861</v>
+      <c r="C9" s="13" t="s">
+        <v>872</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9819,15 +9983,15 @@
       <c r="B10" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>864</v>
+      <c r="C10" s="13" t="s">
+        <v>875</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9835,15 +9999,15 @@
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>864</v>
+      <c r="C11" s="13" t="s">
+        <v>875</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9851,15 +10015,15 @@
       <c r="B12" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>867</v>
+      <c r="C12" s="13" t="s">
+        <v>878</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9867,15 +10031,15 @@
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>867</v>
+      <c r="C13" s="13" t="s">
+        <v>878</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -370,9 +370,7 @@
     <t xml:space="preserve">inex.text</t>
   </si>
   <si>
-    <t xml:space="preserve">**Segítünk értelmezni!** Az oldalon Gyöngyös Önkormányzatának és intézményeinek 2020-as költségvetése látható. A mérleg a költségvetési rendeletben szereplő főösszeget mutatja be. Ahhoz, hogy megértsük, miből gazdálkodik ténylegesen a város, érdemes elkülöníteni a saját intézmények finanszírozását (**irányítószervi támogatás**), ami számviteli okból duplán szerepel a főösszegben, illetve az éven belüli **folyószámlahitel-ügyleteket**. Ezek nélkül Gyöngyös költségvetési kiadásai meghaladták a 11,5 milliárd Ft-ot. Ebből látta el a város szerteágazó feladatait.
-A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A **működési költségvetés** a zavartalan feladatellátást biztosítja, míg a **felhalmozási költségvetés** beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (törvényben meghatározott állami normatívák, helyi adók, a nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások) rendszeresen, ciklikusan jelentkeznek. Ezzel szemben a felhalmozási tételek eseti jellegűek, gyakran több éves költségvetési hatással (pl. uniós és állami pályázatok).
-A működési költségvetés többlete mellett az önkormányzat fenntartható, színvonalas feladatellátásához szükséges fejlesztésekre fordíthatók a kifejezetten felhalmozásra kapott bevételek és a **finanszírozási költségvetés** többlete. Utóbbi csekély részt fejlesztési hiteleket jelent, amit a város jövőbeni működési többletéből tud visszafizetni. Gyöngyös finanszírozási bevételeinek nagyja az előző évi gazdálkodás maradványa: a folyamatban lévő uniós fejlesztések még fel nem használt támogatásai, illetve a megelőző évről maradt szabad maradvány. Mindezek egyelőre tervszámok, a ténylegesen teljesült összegeket a 2021-ben elfogadandó zárszámadás tartalmazza. Ennek birtokában az oldalon a költségvetés kormányzati funkciók szerinti bontását is elérhetővé tesszük.</t>
+    <t xml:space="preserve">**Segítünk értelmezni!** Az oldalon Gyöngyös Önkormányzatának és intézményeinek 2020-as költségvetése látható. A mérleg a költségvetési rendeletben szereplő főösszeget mutatja be. Ahhoz, hogy megértsük, miből gazdálkodik ténylegesen a város, érdemes elkülöníteni a saját intézmények finanszírozását (**&lt;span style="background: #d7d7d7"&gt;irányítószervi támogatás&lt;/span&gt;**), ami számviteli okból duplán szerepel a főösszegben, illetve az éven belüli **&lt;span style="background: #d7d7d7"&gt;folyószámlahitel-ügyleteket&lt;/span&gt;**. Ezek nélkül Gyöngyös költségvetési kiadásai meghaladták a 11,5 milliárd Ft-ot. Ebből látta el a város szerteágazó feladatait.  A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A **&lt;span style="background: #a3b1c8"&gt;működési költségvetés&lt;/span&gt;** a zavartalan feladatellátást biztosítja, míg a **&lt;span style="background: #c1a3c8"&gt;felhalmozási költségvetés&lt;/span&gt;** beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (törvényben meghatározott állami normatívák, helyi adók, a nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások) rendszeresen, ciklikusan jelentkeznek. Ezzel szemben a felhalmozási tételek eseti jellegűek, gyakran több éves költségvetési hatással (pl. uniós és állami pályázatok).  A működési költségvetés többlete mellett az önkormányzat fenntartható, színvonalas feladatellátásához szükséges fejlesztésekre fordíthatók a kifejezetten felhalmozásra kapott bevételek és a **&lt;span style="background: #ace3c4"&gt;finanszírozási költségvetés&lt;/span&gt;** többlete. Utóbbi csekély részt fejlesztési hiteleket jelent, amit a város jövőbeni működési többletéből tud visszafizetni. Gyöngyös finanszírozási bevételeinek nagyja az előző évi gazdálkodás maradványa: a folyamatban lévő uniós fejlesztések még fel nem használt támogatásai, illetve a megelőző évről maradt szabad maradvány. Mindezek egyelőre tervszámok, a ténylegesen teljesült összegeket a 2021-ben elfogadandó zárszámadás tartalmazza. Ennek birtokában az oldalon a költségvetés kormányzati funkciók szerinti bontását is elérhetővé tesszük.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérleg szakasz ábra alatti szövege. Markdown jelölések használhatóak (pl. formázás, linkek).</t>
@@ -3150,12 +3148,12 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.85"/>
@@ -3591,7 +3589,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="611.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>107</v>
       </c>
@@ -3769,7 +3767,7 @@
       <selection pane="bottomLeft" activeCell="C143" activeCellId="0" sqref="C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.86"/>
@@ -6790,7 +6788,7 @@
       <selection pane="bottomLeft" activeCell="C319" activeCellId="0" sqref="C319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.86"/>
@@ -9806,7 +9804,7 @@
       <selection pane="bottomLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.43"/>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -370,7 +370,9 @@
     <t xml:space="preserve">inex.text</t>
   </si>
   <si>
-    <t xml:space="preserve">**Segítünk értelmezni!** Az oldalon Gyöngyös Önkormányzatának és intézményeinek 2020-as költségvetése látható. A mérleg a költségvetési rendeletben szereplő főösszeget mutatja be. Ahhoz, hogy megértsük, miből gazdálkodik ténylegesen a város, érdemes elkülöníteni a saját intézmények finanszírozását (**&lt;span style="background: #d7d7d7"&gt;irányítószervi támogatás&lt;/span&gt;**), ami számviteli okból duplán szerepel a főösszegben, illetve az éven belüli **&lt;span style="background: #d7d7d7"&gt;folyószámlahitel-ügyleteket&lt;/span&gt;**. Ezek nélkül Gyöngyös költségvetési kiadásai meghaladták a 11,5 milliárd Ft-ot. Ebből látta el a város szerteágazó feladatait.  A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A **&lt;span style="background: #a3b1c8"&gt;működési költségvetés&lt;/span&gt;** a zavartalan feladatellátást biztosítja, míg a **&lt;span style="background: #c1a3c8"&gt;felhalmozási költségvetés&lt;/span&gt;** beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (törvényben meghatározott állami normatívák, helyi adók, a nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások) rendszeresen, ciklikusan jelentkeznek. Ezzel szemben a felhalmozási tételek eseti jellegűek, gyakran több éves költségvetési hatással (pl. uniós és állami pályázatok).  A működési költségvetés többlete mellett az önkormányzat fenntartható, színvonalas feladatellátásához szükséges fejlesztésekre fordíthatók a kifejezetten felhalmozásra kapott bevételek és a **&lt;span style="background: #ace3c4"&gt;finanszírozási költségvetés&lt;/span&gt;** többlete. Utóbbi csekély részt fejlesztési hiteleket jelent, amit a város jövőbeni működési többletéből tud visszafizetni. Gyöngyös finanszírozási bevételeinek nagyja az előző évi gazdálkodás maradványa: a folyamatban lévő uniós fejlesztések még fel nem használt támogatásai, illetve a megelőző évről maradt szabad maradvány. Mindezek egyelőre tervszámok, a ténylegesen teljesült összegeket a 2021-ben elfogadandó zárszámadás tartalmazza. Ennek birtokában az oldalon a költségvetés kormányzati funkciók szerinti bontását is elérhetővé tesszük.</t>
+    <t xml:space="preserve">**Segítünk értelmezni!** Az oldalon Gyöngyös Önkormányzatának és intézményeinek 2020-as költségvetése látható. A mérleg a költségvetési rendeletben szereplő főösszeget mutatja be. Ahhoz, hogy megértsük, miből gazdálkodik ténylegesen a város, érdemes elkülöníteni a saját intézmények finanszírozását (**&lt;span style="background: #d7d7d7"&gt;irányítószervi támogatás&lt;/span&gt;**), ami számviteli okból duplán szerepel a főösszegben, illetve az éven belüli **&lt;span style="background: #d7d7d7"&gt;folyószámlahitel-ügyleteket&lt;/span&gt;**. Ezek nélkül Gyöngyös költségvetési kiadásai meghaladták a 11,5 milliárd Ft-ot. Ebből látta el a város szerteágazó feladatait.
+A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A **&lt;span style="background: #a3b1c8"&gt;működési költségvetés&lt;/span&gt;** a zavartalan feladatellátást biztosítja, míg a **&lt;span style="background: #c1a3c8"&gt;felhalmozási költségvetés&lt;/span&gt;** beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (törvényben meghatározott állami normatívák, helyi adók, a nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások) rendszeresen, ciklikusan jelentkeznek. Ezzel szemben a felhalmozási tételek eseti jellegűek, gyakran több éves költségvetési hatással (pl. uniós és állami pályázatok).
+A működési költségvetés többlete mellett az önkormányzat fenntartható, színvonalas feladatellátásához szükséges fejlesztésekre fordíthatók a kifejezetten felhalmozásra kapott bevételek és a **&lt;span style="background: #ace3c4"&gt;finanszírozási költségvetés&lt;/span&gt;** többlete. Utóbbi csekély részt fejlesztési hiteleket jelent, amit a város jövőbeni működési többletéből tud visszafizetni. Gyöngyös finanszírozási bevételeinek nagyja az előző évi gazdálkodás maradványa: a folyamatban lévő uniós fejlesztések még fel nem használt támogatásai, illetve a megelőző évről maradt szabad maradvány. Mindezek egyelőre tervszámok, a ténylegesen teljesült összegeket a 2021-ben elfogadandó zárszámadás tartalmazza. Ennek birtokában az oldalon a költségvetés kormányzati funkciók szerinti bontását is elérhetővé tesszük.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérleg szakasz ábra alatti szövege. Markdown jelölések használhatóak (pl. formázás, linkek).</t>
@@ -3153,7 +3155,7 @@
       <selection pane="bottomLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.85"/>
@@ -3589,7 +3591,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="611.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="650.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>107</v>
       </c>
@@ -3767,7 +3769,7 @@
       <selection pane="bottomLeft" activeCell="C143" activeCellId="0" sqref="C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.86"/>
@@ -6788,7 +6790,7 @@
       <selection pane="bottomLeft" activeCell="C319" activeCellId="0" sqref="C319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.86"/>
@@ -9804,7 +9806,7 @@
       <selection pane="bottomLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.43"/>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="913">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2706,6 +2706,12 @@
   </si>
   <si>
     <t xml:space="preserve">descriptionInMarkdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/assets/img/1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/assets/vid/1.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">Közérthető költségvetés - Mi ez?</t>
@@ -3094,15 +3100,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.13"/>
@@ -4656,7 +4662,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z333"/>
+  <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
@@ -4664,7 +4670,7 @@
       <selection pane="bottomLeft" activeCell="A307" activeCellId="0" sqref="A307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.5"/>
@@ -8549,7 +8555,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z342"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
@@ -8557,7 +8563,7 @@
       <selection pane="bottomLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.87"/>
@@ -12548,19 +12554,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="15.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="62.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="8.5"/>
@@ -12593,13 +12599,17 @@
       <c r="B2" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>895</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12609,13 +12619,17 @@
       <c r="B3" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>895</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12626,14 +12640,14 @@
         <v>2020</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12644,14 +12658,14 @@
         <v>2021</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="3" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12662,14 +12676,14 @@
         <v>2020</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="3" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12680,14 +12694,14 @@
         <v>2021</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="3" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12698,14 +12712,14 @@
         <v>2020</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="12" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12716,14 +12730,14 @@
         <v>2021</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="12" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12734,14 +12748,14 @@
         <v>2020</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="3" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12752,14 +12766,14 @@
         <v>2021</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="3" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12768,14 +12782,14 @@
         <v>2020</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="23" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12784,14 +12798,14 @@
         <v>2021</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="23" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">inex.text</t>
   </si>
   <si>
-    <t xml:space="preserve">**Segítünk értelmezni!** Az ábra Mintaváros önkormányzatának és intézményeinek éves költségvetését mutatja mérlegszerű bontásban. A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A működési költségvetés a zavartalan feladatellátást biztosítja, míg a felhalmozási költségvetés beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (törvényben meghatározott állami normatívák, helyi adók, a nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások) rendszeresen, ciklikusan jelentkeznek. Ezzel szemben a felhalmozási tételek eseti jellegűek, gyakran több éves költségvetési hatással (pl. uniós és állami pályázatok). A finanszírozási többlet java része az előző évi gazdálkodás maradványa: a folyamatban lévő fejlesztések még fel nem használt támogatásai, illetve az előző évről maradt szabad maradvány. </t>
+    <t xml:space="preserve">**Segítünk értelmezni!** Az ábra Mintaváros önkormányzatának és intézményeinek éves költségvetését mutatja mérlegszerű bontásban. A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A &lt;span style="background: #a3b1c8"&gt;működési költségvetés&lt;/span&gt; a zavartalan feladatellátást biztosítja, míg a &lt;span style="background: #c1a3c8"&gt;felhalmozási költségvetés&lt;/span&gt; beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (törvényben meghatározott állami normatívák, helyi adók, a nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások) rendszeresen, ciklikusan jelentkeznek. Ezzel szemben a felhalmozási tételek eseti jellegűek, gyakran több éves költségvetési hatással (pl. uniós és állami pályázatok). A &lt;span style="background: #ace3c4"&gt;finanszírozási többlet&lt;/span&gt; java része az előző évi gazdálkodás maradványa: a folyamatban lévő fejlesztések még fel nem használt támogatásai, illetve az előző évről maradt szabad maradvány.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérleg szakasz ábra alatti szövege. Markdown jelölések használhatóak (pl. formázás, linkek).</t>
@@ -3102,13 +3102,13 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.13"/>
@@ -4667,10 +4667,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A307" activeCellId="0" sqref="A307"/>
+      <selection pane="bottomLeft" activeCell="A307" activeCellId="1" sqref="B40 A307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.5"/>
@@ -8560,10 +8560,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
+      <selection pane="bottomLeft" activeCell="A98" activeCellId="1" sqref="B40 A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.87"/>
@@ -12556,13 +12556,13 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="B40 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.61"/>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -347,7 +347,8 @@
     <t xml:space="preserve">inex.text</t>
   </si>
   <si>
-    <t xml:space="preserve">**Segítünk értelmezni!** Az ábra Mintaváros önkormányzatának és intézményeinek éves költségvetését mutatja mérlegszerű bontásban. A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A &lt;span style="background: #a3b1c8"&gt;működési költségvetés&lt;/span&gt; a zavartalan feladatellátást biztosítja, míg a &lt;span style="background: #c1a3c8"&gt;felhalmozási költségvetés&lt;/span&gt; beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (törvényben meghatározott állami normatívák, helyi adók, a nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások) rendszeresen, ciklikusan jelentkeznek. Ezzel szemben a felhalmozási tételek eseti jellegűek, gyakran több éves költségvetési hatással (pl. uniós és állami pályázatok). A &lt;span style="background: #ace3c4"&gt;finanszírozási többlet&lt;/span&gt; java része az előző évi gazdálkodás maradványa: a folyamatban lévő fejlesztések még fel nem használt támogatásai, illetve az előző évről maradt szabad maradvány.</t>
+    <t xml:space="preserve">**Segítünk értelmezni!** Az ábra Mintaváros önkormányzatának és intézményeinek éves költségvetését mutatja mérlegszerű bontásban.
+A bevételek és kiadások is felbonthatók működési és felhalmozási tételekre. A &lt;span style="background: #a3b1c8"&gt;működési&amp;nbsp;költségvetés&lt;/span&gt; a zavartalan feladatellátást biztosítja, míg a &lt;span style="background: #c1a3c8"&gt;felhalmozási&amp;nbsp;költségvetés&lt;/span&gt; beruházásokhoz, felújításokhoz kapcsolódik, melyek célja tartós eszközök beszerzése, a tevékenység bővítése, modernizálása. A működési bevételek (törvényben meghatározott állami normatívák, helyi adók, a nyújtott szolgáltatások ellenértéke) és kiadások (bérek, rezsiköltségek, nyújtott támogatások) rendszeresen, ciklikusan jelentkeznek. Ezzel szemben a felhalmozási tételek eseti jellegűek, gyakran több éves költségvetési hatással (pl. uniós és állami pályázatok). A &lt;span style="background: #ace3c4"&gt;finanszírozási&amp;nbsp;többlet&lt;/span&gt; java része az előző évi gazdálkodás maradványa: a folyamatban lévő fejlesztések még fel nem használt támogatásai, illetve az előző évről maradt szabad maradvány.</t>
   </si>
   <si>
     <t xml:space="preserve">Mérleg szakasz ábra alatti szövege. Markdown jelölések használhatóak (pl. formázás, linkek).</t>
@@ -2960,7 +2961,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3105,10 +3106,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.13"/>
@@ -4667,10 +4668,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A307" activeCellId="1" sqref="B40 A307"/>
+      <selection pane="bottomLeft" activeCell="A307" activeCellId="0" sqref="A307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.5"/>
@@ -8560,10 +8561,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A98" activeCellId="1" sqref="B40 A98"/>
+      <selection pane="bottomLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.87"/>
@@ -12559,10 +12560,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="B40 A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.61"/>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="912">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -2707,9 +2707,6 @@
   </si>
   <si>
     <t xml:space="preserve">descriptionInMarkdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/assets/img/1.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">/assets/vid/1.mp4</t>
@@ -3103,7 +3100,7 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
@@ -12557,10 +12554,10 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12600,17 +12597,15 @@
       <c r="B2" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="10" t="s">
         <v>896</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12620,17 +12615,15 @@
       <c r="B3" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="10" t="s">
         <v>896</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12641,14 +12634,14 @@
         <v>2020</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>899</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12659,14 +12652,14 @@
         <v>2021</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>899</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12677,14 +12670,14 @@
         <v>2020</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>902</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12695,14 +12688,14 @@
         <v>2021</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>902</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12713,14 +12706,14 @@
         <v>2020</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>905</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12731,14 +12724,14 @@
         <v>2021</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>905</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12749,14 +12742,14 @@
         <v>2020</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>908</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12767,14 +12760,14 @@
         <v>2021</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>908</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12783,14 +12776,14 @@
         <v>2020</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="23" t="s">
+        <v>910</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>911</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12799,14 +12792,14 @@
         <v>2021</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="23" t="s">
+        <v>910</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>911</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -456,7 +456,7 @@
     <t xml:space="preserve">feedback.url</t>
   </si>
   <si>
-    <t xml:space="preserve">about:blank</t>
+    <t xml:space="preserve">https://forms.gle/SKMdYvfrFEZTXq6V8</t>
   </si>
   <si>
     <t xml:space="preserve">Visszajelző űrlap URL-je.</t>
@@ -2013,12 +2013,12 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40"/>
@@ -2597,7 +2597,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>142</v>
       </c>
@@ -2635,7 +2635,7 @@
       <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
@@ -4516,7 +4516,7 @@
       <selection pane="bottomLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
@@ -456,7 +456,7 @@
     <t xml:space="preserve">feedback.url</t>
   </si>
   <si>
-    <t xml:space="preserve">about:blank</t>
+    <t xml:space="preserve">https://forms.gle/PAfJVyP9ZwoLhQVr9</t>
   </si>
   <si>
     <t xml:space="preserve">Visszajelző űrlap URL-je.</t>
@@ -3100,13 +3100,13 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.20703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.13"/>
@@ -4668,7 +4668,7 @@
       <selection pane="bottomLeft" activeCell="A307" activeCellId="0" sqref="A307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.20703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.5"/>
@@ -8561,7 +8561,7 @@
       <selection pane="bottomLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.20703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.87"/>
@@ -12554,13 +12554,13 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.20703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.61"/>

--- a/input/config.xlsx
+++ b/input/config.xlsx
@@ -5,24 +5,25 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="tooltips 2020" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="milestones" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="tooltips 2021" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="milestones" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1244">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -1663,6 +1664,2055 @@
   </si>
   <si>
     <t xml:space="preserve">Hitel-, kölcsöntörlesztés, bankbetét elhelyezés. Nem volt tervben ilyen kiadás a 2020-as évre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Általános közszolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szociális védelem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fogyatékosság</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fogyatékossággal élők nappali ellátása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 101221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Időskor, demens betegek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idősek nappali ellátása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 102031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Család és gyermekek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 1040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyermekek átmeneti ellátása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 104012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyermekek bölcsődei ellátása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 104031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyermekétkeztetés bölcsődében, fogyatékosok nappali intézményében</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 104035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munkahelyi étkeztetés bölcsődében</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 104036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intézményen kívüli gyermekétkeztetés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 104037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Család és gyermekjóléti szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 104042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Család és gyermekjóléti központ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 104043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyermekvédelmi pénzbeli és természetbeni ellátások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 104051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb szociális kirekesztettség</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 1070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szociális étkeztetés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 107051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Házi segítségnyújtás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 107052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jelzőrendszeres házi segítségnyújtás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 107053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb szociális pénzbeli és természetbeni ellátások, támogatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 107060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Államhatalmi, törvényhozó és végrehajtó szervezetek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Önkormányzatok és önkormányzati hivatalok jogalkotó és általános igazgatási tevékenysége</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 11130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pénzügyi és költségvetési tevékenységek, adózási ügyek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adó-, vám- és jövedéki igazgatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 11220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb általános szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az önkormányzati vagyonnal való gazdálkodással kapcsolatos feladatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 13350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Általános jellegű transzferek a kormányzat különböző szintjei között</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Központi költségvetési befizetések</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 18020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közrend és közbiztonság</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendészeti tevékenységek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közterület rendjének fenntartása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 31030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gazdasági ügyek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Általános gazdasági és kereskedelmi ügyek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Műszaki vizsgálat, elemzés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 41170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Általános munkaügyek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosszabb időtartamú közfoglalkoztatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 41233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mezőgazdaság</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Állat-egészségügy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 42180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közúti közlekedés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közutak, hidak, alagutak üzemeltetése, fenntartása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 45160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elosztó kereskedelem, tárolás, raktározás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piac üzemeltetése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 47120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közösségi létesítmények</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakásépítés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakáshoz jutást segítő támogatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 61030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb kommunális feladatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zöldterület-kezelés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 66010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Város-, községgazdálkodási egyéb szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 66020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egészségügy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Általános orvosi szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Háziorvosi alapellátás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 72111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Háziorvosi ügyeleti ellátás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 72112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szakosított orvosi szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Járóbetegek gyógyító szakellátása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 72210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Járóbetegek rehabilitációs szakellátása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 72220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Járóbetegek gyógyító gondozása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 72230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fogorvosi szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fogorvosi alapellátás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 72311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fogorvosi szakellátás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 72313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramedikális szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otthoni (egészségügyi) szakápolás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 72410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egészségügyi laboratóriumi szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 72420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Képalkotó diagnosztikai szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 72430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fizikoterápiás szolgáltatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 72450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közegészségügyi szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foglalkozás-egészségügyi alapellátás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 74011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Család és nővédelmi egészségügyi gondozás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 74031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ifjúság-egészségügyi gondozás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 74032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fertőző megbetegedések megelőzése, járványügyi ellátás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 74040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szabadidő</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szabadidős és sportszolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Üdülői szálláshely-szolgáltatás és étkeztetés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 81071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulturális szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közművelődés - hagyományos közösségi kulturális értékek gondozása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 82092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Műsorszolgáltatási és kiadói szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb kiadói tevékenység</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 83030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Televízió-műsor szolgáltatása és támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 83050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vallási és egyéb közösségi szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil szervezetek működési támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 84031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oktatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Óvodai nevelés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Óvodai nevelés, ellátás szakmai feladatai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 91110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sajátos nevelési igényű gyermekek óvodai nevelésének, ellátásának szakmai feladatai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 91120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nemzetiségi óvodai nevelés, ellátás szakmai feladatai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 91130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Óvodai nevelés, ellátás működtetési feladatai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 91140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oktatást kiegészítő szolgáltatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyermekétkeztetés köznevelési intézményben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: 96015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B1101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B110101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Önkormányzati Hivatal működésének támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B110101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B110102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Településüzemeltetés - zöldterület-gazdálkodás támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B110102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B110103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Településüzemeltetés - közutak támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B110103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B110104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb önkormányzati feladatok támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B110104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B1102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B110201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Óvodaműködtetési támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B110201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B110202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az Óvodában foglalkoztatott pedagógusok átlagbéralapú támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B110202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B110203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiegészítő támogatás a pedagógusok és a pedagógus szakképzettséggel rendelkező segítők minősítéséből adódó többletkiadásokhoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B110203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B110204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nemzetiségi pótlék</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B110204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B110205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az óvodában foglalkoztatott pedagógusok nevelőmunkáját közvetlenül segítők átlagbéralapú támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B110205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B1103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B110301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyes szociális és gyermekjóléti feladatok támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B110301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B110302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bölcsőde, mini bölcsőde támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B110302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B110303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az önkormányzatok által biztosított egyes szociális szakosított ellátások, valamint a gyermekek átmeneti gondozásával kapcsolatos feladatok támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B110303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B110304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A települési önkormányzatok gyermekétkeztetési feladatainak támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B110304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B1104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B2101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B2102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B3301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B3302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B3303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B3304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B3305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B3306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb működési bevételek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Működési célú átvett pénzeszközök</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belföldi értékpapírok bevételei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: B82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finanszírozási többlet (maradvány, értékpapírok beváltása)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: FT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K130503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K1803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polgármesteri hivatal dologi kiadásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K2305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Települési támogatás formájában, havi rendszerességgel nyújtott támogatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyógyszertámogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ápolási támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakhatási támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hátralékkiegyenlítő támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hátralékkiegyenlítő támogatáshoz nyújtott lakhatási támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fűtéstámogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakbértámogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendkívüli települési támogatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eseti támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temetési támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Születési támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyszeri támogatásként</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Támogatás idősek világnapjára természetbeni juttatásként</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyszeri természetbeni juttatásként</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Méltányossági segély</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendkívüli bérletidíj-támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakás-felújítási támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiatalok életkezdési támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosható nadrágpelenka támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Köztemetés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K3213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K4201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K4202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrona Hungariae Katolikus Iskolaközpont Óvodájának működési célú támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K4301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Működési célú támogatás egyéb civil szervezetek részére</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K4302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020.  évi pályázatok kifizetései</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terézváros Közrendjéért és Közbiztonságáért Közalapítvány (TEKA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terepgyakorlat Szinyei Merse Pál Alapítvány</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Környezetvédelmi programok iskoláknak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TámogatLak program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerékpáros biztosítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulturális pályázat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K4303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K4303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hajléktalanokért Közalapítvány</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K4304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyházaknak nyújtott egyéb működési célú támogatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K4304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K4305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonprofit gazdasági társaságok részére nújtott egyéb működési támogatások</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K4305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K430502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K430502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K4401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K4402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K5101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K5102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K5103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K5104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K5105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oktatási intézmények beruházásai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Játékvár óvoda (Lendvay u. ) udvarfelújítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tóth Aladár Zeneiskola (Szív utca 19-21.) homlokzatfelújítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bajza utcai általános iskola tanuszodájának fűtéskorszerűsítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szinyei Merse Pál Gimnázium homlokzatfelújítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyermekfogászat kamerás beléptető és betegirányító</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tüdőgondozó épületében sugárterápiás átalakítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vásárcsarnok felújításának tervezése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epreskert megnyitása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aradi u. 22. lakóépület felújítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 db üres lakás felújítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Király u. 50. homlokzatfelújítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nem nevesített épületek felújítása (előre nem tervezett épülfelújítások)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közterek felújítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gyalogos aluljáró felújítása, Bajza - Búlcsú utcai aluljáró</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulcsú utcai aluljáró melletti zöldfelületek felújítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podmaniczky utcai  hulladéksziget áthelyezése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutyafuttató felújítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benczúr utcai zöldsáv kialakítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utcafásítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunyadi téri fák körüli burkolatjavítás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulay Ede u.-Hegedű u.-Liszt Ferenc tér közötti szakasz út- és járda építése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgalomcsökkentési építmények, eszközök, mobilitási pontok, kerékpártámaszok létesítése, intézmény előtti pihenő kialakítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Közvilágítás kialakítása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K6412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Térfigyelő kamerarendszer telepítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K6412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Épületek, közterek felújításának ÁFA-ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Társasházi zöldfelület fejlesztés pályázat áthúzódó része</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Társasházi zöldfelület fejlesztés új pályázat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyílászárók korszerűsítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TÉÉT homlokzattervezési támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zöldfal létesítési támogatás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Társasházi kerékpártároló</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egyéb felhalmozási célú támogatások államháztartáson belülre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKF támogatása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K7301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itt rövid leírás olvasható a kategóriáról: K74</t>
   </si>
   <si>
     <t xml:space="preserve">nodeId</t>
@@ -1726,11 +3776,10 @@
   </numFmts>
   <fonts count="14">
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1773,13 +3822,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF00396C"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1816,6 +3858,13 @@
       <name val="Arial CE"/>
       <family val="0"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1872,7 +3921,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1889,7 +3938,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1897,7 +3946,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1905,20 +3958,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1929,7 +3982,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2012,20 +4065,20 @@
   </sheetPr>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.69"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2036,7 +4089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2048,563 +4101,563 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>1280</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>1920</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" customFormat="false" ht="229.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" customFormat="false" ht="169.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" customFormat="false" ht="338.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="48" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="4" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2630,19 +4683,19 @@
   <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="100"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.69"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -2653,1839 +4706,1839 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="4" t="s">
         <v>192</v>
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="4" t="s">
         <v>211</v>
       </c>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="4" t="s">
         <v>227</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="4" t="s">
         <v>232</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="4" t="s">
         <v>241</v>
       </c>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C51" s="8"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C52" s="8"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="4" t="s">
         <v>269</v>
       </c>
       <c r="C53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C54" s="8"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C59" s="8"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C60" s="8"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C62" s="8"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C63" s="8"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C64" s="8"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C65" s="8"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C66" s="8"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C67" s="8"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C68" s="8"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="4" t="s">
         <v>289</v>
       </c>
       <c r="C69" s="8"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C70" s="8"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C71" s="8"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C73" s="8"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C74" s="8"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C76" s="8"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="4" t="s">
         <v>299</v>
       </c>
       <c r="C77" s="8"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C78" s="8"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C79" s="8"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C80" s="8"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C81" s="8"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C82" s="8"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C84" s="8"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="4" t="s">
         <v>309</v>
       </c>
       <c r="C85" s="8"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C87" s="8"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C88" s="8"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="4" t="s">
         <v>314</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="4" t="s">
         <v>317</v>
       </c>
       <c r="C90" s="8"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="4" t="s">
         <v>319</v>
       </c>
       <c r="C91" s="8"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="4" t="s">
         <v>321</v>
       </c>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="4" t="s">
         <v>323</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="4" t="s">
         <v>326</v>
       </c>
       <c r="C94" s="8"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="4" t="s">
         <v>328</v>
       </c>
       <c r="C95" s="8"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="4" t="s">
         <v>330</v>
       </c>
       <c r="C96" s="8"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C97" s="8"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="4" t="s">
         <v>338</v>
       </c>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="4" t="s">
         <v>340</v>
       </c>
       <c r="C101" s="8"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="4" t="s">
         <v>342</v>
       </c>
       <c r="C102" s="8"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="4" t="s">
         <v>344</v>
       </c>
       <c r="C103" s="8"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="4" t="s">
         <v>346</v>
       </c>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C105" s="8"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="4" t="s">
         <v>350</v>
       </c>
       <c r="C106" s="8"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="4" t="s">
         <v>352</v>
       </c>
       <c r="C107" s="8"/>
     </row>
-    <row r="108" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="108" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="4" t="s">
         <v>357</v>
       </c>
       <c r="C109" s="8"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="4" t="s">
         <v>363</v>
       </c>
       <c r="C112" s="8"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="4" t="s">
         <v>365</v>
       </c>
       <c r="C113" s="8"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="4" t="s">
         <v>367</v>
       </c>
       <c r="C114" s="8"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C115" s="8"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="4" t="s">
         <v>371</v>
       </c>
       <c r="C116" s="8"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C117" s="12"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="4" t="s">
         <v>375</v>
       </c>
       <c r="C118" s="12"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C119" s="12"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C120" s="12"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="4" t="s">
         <v>381</v>
       </c>
       <c r="C121" s="12"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="4" t="s">
         <v>383</v>
       </c>
       <c r="C122" s="12"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C123" s="12"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="4" t="s">
         <v>387</v>
       </c>
       <c r="C124" s="12"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C125" s="12"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="4" t="s">
         <v>391</v>
       </c>
       <c r="C126" s="12"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="4" t="s">
         <v>393</v>
       </c>
       <c r="C127" s="12"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="4" t="s">
         <v>395</v>
       </c>
       <c r="C128" s="12"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="4" t="s">
         <v>397</v>
       </c>
       <c r="C129" s="12"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C130" s="12"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="4" t="s">
         <v>404</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="4" t="s">
         <v>407</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="4" t="s">
         <v>410</v>
       </c>
       <c r="C134" s="12"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="4" t="s">
         <v>412</v>
       </c>
       <c r="C135" s="12"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="4" t="s">
         <v>414</v>
       </c>
       <c r="C136" s="12"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="4" t="s">
         <v>416</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="4" t="s">
         <v>419</v>
       </c>
       <c r="C138" s="12"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="4" t="s">
         <v>421</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="4" t="s">
         <v>424</v>
       </c>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="4" t="s">
         <v>426</v>
       </c>
       <c r="C141" s="8"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="4" t="s">
         <v>428</v>
       </c>
       <c r="C142" s="8"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="4" t="s">
         <v>430</v>
       </c>
       <c r="C143" s="8"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="4" t="s">
         <v>432</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="4" t="s">
         <v>435</v>
       </c>
       <c r="C145" s="8"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="4" t="s">
         <v>437</v>
       </c>
       <c r="C146" s="8"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="4" t="s">
         <v>439</v>
       </c>
       <c r="C147" s="8"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="4" t="s">
         <v>441</v>
       </c>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="4" t="s">
         <v>443</v>
       </c>
       <c r="C149" s="8"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="4" t="s">
         <v>445</v>
       </c>
       <c r="C150" s="8"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="4" t="s">
         <v>447</v>
       </c>
       <c r="C151" s="8"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="4" t="s">
         <v>449</v>
       </c>
       <c r="C152" s="8"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="4" t="s">
         <v>451</v>
       </c>
       <c r="C153" s="8"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="4" t="s">
         <v>453</v>
       </c>
       <c r="C154" s="8"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="4" t="s">
         <v>455</v>
       </c>
       <c r="C155" s="8"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="4" t="s">
         <v>457</v>
       </c>
       <c r="C156" s="8"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="4" t="s">
         <v>459</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="4" t="s">
         <v>462</v>
       </c>
       <c r="C158" s="8"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="4" t="s">
         <v>464</v>
       </c>
       <c r="C159" s="8"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="4" t="s">
         <v>466</v>
       </c>
       <c r="C160" s="8"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="4" t="s">
         <v>468</v>
       </c>
       <c r="C161" s="8"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="4" t="s">
         <v>470</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="4" t="s">
         <v>473</v>
       </c>
       <c r="C163" s="8"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" s="4" t="s">
         <v>475</v>
       </c>
       <c r="C164" s="8"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" s="4" t="s">
         <v>477</v>
       </c>
       <c r="C165" s="8"/>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" s="4" t="s">
         <v>479</v>
       </c>
       <c r="C166" s="8"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="4" t="s">
         <v>481</v>
       </c>
       <c r="C167" s="8"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" s="4" t="s">
         <v>483</v>
       </c>
       <c r="C168" s="8"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="4" t="s">
         <v>485</v>
       </c>
       <c r="C169" s="8"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="4" t="s">
         <v>487</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" s="4" t="s">
         <v>483</v>
       </c>
       <c r="C171" s="8"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" s="4" t="s">
         <v>491</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="fal